--- a/Acceptance Tests/Acceptance Tests.xlsx
+++ b/Acceptance Tests/Acceptance Tests.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26905"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asaf/Desktop/GHealth-System/Acceptance Tests/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="15990" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="2" r:id="rId1"/>
@@ -16,20 +21,22 @@
     <sheet name="Branch Manager" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="469">
   <si>
     <t xml:space="preserve">Use Case: </t>
   </si>
@@ -2718,12 +2725,325 @@
   <si>
     <t>Open"Add Picture" Window</t>
   </si>
+  <si>
+    <t>Acceptance Testing for Use Case:View periodical report</t>
+  </si>
+  <si>
+    <t>View periodical report</t>
+  </si>
+  <si>
+    <t>System open
+ succecfully the window</t>
+  </si>
+  <si>
+    <t>System open 
+window "Kind of 
+optional reports"</t>
+  </si>
+  <si>
+    <t>1.Open " View 
+reports" window.
+2.Click " View Optional 
+reports".</t>
+  </si>
+  <si>
+    <t>ViewOptionalReportsKind</t>
+  </si>
+  <si>
+    <t>System close
+ succecfully the window</t>
+  </si>
+  <si>
+    <t>System close the window</t>
+  </si>
+  <si>
+    <t>1.Open "View reports"
+2.Click "Exit".</t>
+  </si>
+  <si>
+    <t>ExitOptionalView</t>
+  </si>
+  <si>
+    <t>Acceptance Testing for Use Case:View Specific period</t>
+  </si>
+  <si>
+    <t>View Specific period</t>
+  </si>
+  <si>
+    <t>System compute
+the months 
+for the report.
+System take the month 
+from the second date 
+and sub with the month
+from the first date.
+System display successfully 
+the report.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+System Present Monthly report details for each week :Number of patients,Waiting time for service ,Waiting time for treatment, Average,Minimum,Maximum,Standard deviation , Number of costumers that left , Number of costumers that did not arrive and did not call to cancel appointment.
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Open " kind of reports" window.
+2.Click "View 
+specific period report"
+3.Open "specific period report" window.
+4.Type First date: 25.5.14
+5.Type Second date: 1.8.14
+6.Click ok. </t>
+  </si>
+  <si>
+    <t>SpecificSuccessful</t>
+  </si>
+  <si>
+    <t>System check if the month bigger 
+then 12 or less then 0 for each date, days can not be negative 
+and bigger then 31.</t>
+  </si>
+  <si>
+    <t>System throws out a warning 
+message "Please, insert correct dates!".
+A system cleans all fields of "specific period report" window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Open " kind of reports" window.
+2.Click "View 
+specific period report"
+3.Open "specific period report" window.
+4.Type First date: 25.13.14
+5.Type Second date: 1.0.14
+6.Click ok. </t>
+  </si>
+  <si>
+    <t>WrongDate</t>
+  </si>
+  <si>
+    <t>System display the report about 
+the single month.</t>
+  </si>
+  <si>
+    <t>System Present Monthly report details for each week :Number of patients,Waiting time for service ,Waiting time for treatment, Average,Minimum,Maximum,Standard deviation , Number of costumers that left , Number of costumers that did not arrive and did not call to cancel appointment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Open " kind of reports" window.
+2.Click "View 
+specific period report"
+3.Open "specific period report" window.
+4.Type First date: 25.5.14
+5.Type Second date: 25.5.14
+6.Click ok. </t>
+  </si>
+  <si>
+    <t>SameDate</t>
+  </si>
+  <si>
+    <t>System check the varibale type for 
+each date.</t>
+  </si>
+  <si>
+    <t>System throws out a warning 
+message "Please, insert correct Variables!".
+A system cleans all fields of 
+"specific period report" window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Open " kind of reports" window.
+2.Click "View 
+specific period report"
+3.Open "specific period report" window.
+4.Type First date: 2a.5.14
+5.Type Second date: 25.5.r4
+6.Click ok. </t>
+  </si>
+  <si>
+    <t>WrongVariable</t>
+  </si>
+  <si>
+    <t>System check all the mandatory fields.</t>
+  </si>
+  <si>
+    <t>System throws out a warning 
+message "Please,fill all the necessary fields!".
+A system cleans all fields of "specific period report" window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Open " kind of reports" window.
+2.Click "View 
+specific period report"
+3.Open "specific period report" window.
+4.Type First date: 
+5.Type Second date: 
+6.Click ok. 
+___________________________
+1.Open " kind of reports" window.
+2.Click "View 
+specific period report"
+3.Open "specific period report" window.
+4.Type First date: 13.5.13
+5.Type Second date: 
+6.Click ok. 
+___________________________
+1.Open " kind of reports" window.
+2.Click "View 
+specific period report"
+3.Open "specific period report" window.
+4.Type First date: 
+5.Type Second date:12.2.11 
+6.Click ok. </t>
+  </si>
+  <si>
+    <t>EmptyDate</t>
+  </si>
+  <si>
+    <t>System close the "specific period report" window and 
+return to "kind of reports" 
+windows.</t>
+  </si>
+  <si>
+    <t>1.Open " kind of reports" window.
+2.Click "View 
+specific period report"
+3.Open "specific period report" window.
+2.Click cancel</t>
+  </si>
+  <si>
+    <t>CancelSpecialView</t>
+  </si>
+  <si>
+    <t>System close the "Kind of reports" window and 
+return to "View reports" 
+windows.</t>
+  </si>
+  <si>
+    <t>1.Open " kind of reports" window.
+2.Click Cancel</t>
+  </si>
+  <si>
+    <t>CancelKindOfReport</t>
+  </si>
+  <si>
+    <t>Acceptance Testing for Use Case: View Last months</t>
+  </si>
+  <si>
+    <t>View Last months</t>
+  </si>
+  <si>
+    <t>system check if the number is 1 to 
+11 integer.
+System compute the N last 
+months according the current month.</t>
+  </si>
+  <si>
+    <t>System Present Monthly report details for  the N last months : Number of patients, Waiting time for service ,Waiting time for treatment,Number of costumers that left , Number of costumers that did not arrive and did not call to cancel appointment .  In addition the System will display the  Average,Minimum,Maximum,Standard deviation of the first details.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.Open " kind of reports" window.
+2.Click "View 
+last months report"
+3.Open "last months report" window.
+4.Enter number: 4
+5.Click ok. </t>
+  </si>
+  <si>
+    <t>Nsuccessful</t>
+  </si>
+  <si>
+    <t>system check if the number is 1 to 
+11 integer.</t>
+  </si>
+  <si>
+    <t>System throws out a warning 
+message "Please, insert correct numer 
+between 1 -11!".
+A system cleans all fields of  
+"last months report" window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.Open " kind of reports" window.
+2.Click "View 
+last months report"
+3.Open "last months report" window.
+4.Enter number: 0
+5.Click ok. </t>
+  </si>
+  <si>
+    <t>NLoewr</t>
+  </si>
+  <si>
+    <t>System throws out a warning 
+message "Please, insert correct numer 
+between 1 -11!".
+A system cleans all fields of " last months report" window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.Open " kind of reports" window.
+2.Click "View 
+last months report"
+3.Open "last months report" window.
+4.Enter number: 14
+5.Click ok. </t>
+  </si>
+  <si>
+    <t>Nhigher</t>
+  </si>
+  <si>
+    <t>System throws out a warning 
+message "Please, insert correct variable between 1 -11!".
+A system cleans all fields of " last months report" window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Open " kind of reports" window.
+2.Click "View 
+last months report"
+3.Open "last months report" window.
+4.Enter number: a
+5.Click ok. </t>
+  </si>
+  <si>
+    <t>NwrongVariable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System throws out a warning 
+message "Please,fill all the necessary fields!".
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Open " kind of reports" window.
+2.Click "View 
+last months report"
+3.Open "last months report" window.
+4.Enter number: 
+5.Click ok. </t>
+  </si>
+  <si>
+    <t>EmtyN</t>
+  </si>
+  <si>
+    <t>System close the "last months report" window and return to "kind of reports" 
+windows.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Open " kind of reports" window.
+2.Click "View 
+last months report"
+3.Open "last months report" window.
+4.Enter number: 6
+5.Click Cancel. </t>
+  </si>
+  <si>
+    <t>CancelNview</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2842,6 +3162,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2869,7 +3197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -3133,13 +3461,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -3168,12 +3496,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3524,6 +3865,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3545,10 +3892,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="היפר-קישור" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -3860,24 +4225,24 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.47265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.89453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.47265625" customWidth="1"/>
-    <col min="4" max="4" width="15.1015625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.47265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="18.89453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>111</v>
       </c>
@@ -3906,7 +4271,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>113</v>
       </c>
@@ -3935,7 +4300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>115</v>
       </c>
@@ -3964,7 +4329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>117</v>
       </c>
@@ -3993,7 +4358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>118</v>
       </c>
@@ -4022,7 +4387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>119</v>
       </c>
@@ -4051,7 +4416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>121</v>
       </c>
@@ -4080,7 +4445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>125</v>
       </c>
@@ -4109,7 +4474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>164</v>
       </c>
@@ -4138,7 +4503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>166</v>
       </c>
@@ -4167,7 +4532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>167</v>
       </c>
@@ -4196,7 +4561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>169</v>
       </c>
@@ -4225,7 +4590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>171</v>
       </c>
@@ -4254,12 +4619,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>7</v>
       </c>
@@ -4273,7 +4638,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>302632195</v>
       </c>
@@ -4287,7 +4652,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>200940997</v>
       </c>
@@ -4301,7 +4666,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>312143969</v>
       </c>
@@ -4315,7 +4680,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>305003659</v>
       </c>
@@ -4329,12 +4694,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
         <v>128</v>
       </c>
@@ -4345,7 +4710,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>1002</v>
       </c>
@@ -4356,7 +4721,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
         <v>1004</v>
       </c>
@@ -4367,7 +4732,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>1003</v>
       </c>
@@ -4378,7 +4743,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="18">
         <v>1001</v>
       </c>
@@ -4389,90 +4754,90 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="37"/>
       <c r="B31" s="38"/>
       <c r="C31" s="39"/>
     </row>
-    <row r="32" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="45" t="s">
         <v>237</v>
       </c>
       <c r="B33" s="44"/>
       <c r="C33" s="41"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B34" s="38"/>
       <c r="C34" s="42"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>82</v>
       </c>
       <c r="B35" s="38"/>
       <c r="C35" s="42"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>83</v>
       </c>
       <c r="B36" s="38"/>
       <c r="C36" s="42"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B37" s="38"/>
       <c r="C37" s="42"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>84</v>
       </c>
       <c r="B38" s="38"/>
       <c r="C38" s="42"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>85</v>
       </c>
       <c r="B39" s="38"/>
       <c r="C39" s="42"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>86</v>
       </c>
       <c r="B40" s="38"/>
       <c r="C40" s="42"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>87</v>
       </c>
       <c r="B41" s="38"/>
       <c r="C41" s="42"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="39"/>
       <c r="B42" s="38"/>
       <c r="C42" s="42"/>
     </row>
-    <row r="43" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="43" t="s">
         <v>89</v>
       </c>
@@ -4481,7 +4846,7 @@
       </c>
       <c r="C44" s="41"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="16">
         <v>11</v>
       </c>
@@ -4490,7 +4855,7 @@
       </c>
       <c r="C45" s="42"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>22</v>
       </c>
@@ -4499,7 +4864,7 @@
       </c>
       <c r="C46" s="42"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>33</v>
       </c>
@@ -4508,7 +4873,7 @@
       </c>
       <c r="C47" s="42"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>44</v>
       </c>
@@ -4517,17 +4882,17 @@
       </c>
       <c r="C48" s="42"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="37"/>
       <c r="B49" s="38"/>
       <c r="C49" s="39"/>
     </row>
-    <row r="51" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="28" t="s">
         <v>7</v>
       </c>
@@ -4538,7 +4903,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="16">
         <v>302632195</v>
       </c>
@@ -4549,7 +4914,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="16">
         <v>302632195</v>
       </c>
@@ -4560,7 +4925,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="16">
         <v>302632195</v>
       </c>
@@ -4571,7 +4936,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>200940997</v>
       </c>
@@ -4582,7 +4947,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>200940997</v>
       </c>
@@ -4593,7 +4958,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>305003659</v>
       </c>
@@ -4604,7 +4969,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>312143969</v>
       </c>
@@ -4615,7 +4980,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>305003659</v>
       </c>
@@ -4626,7 +4991,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>312143969</v>
       </c>
@@ -4637,12 +5002,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="28" t="s">
         <v>73</v>
       </c>
@@ -4656,7 +5021,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="18">
         <v>1001</v>
       </c>
@@ -4670,7 +5035,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="18">
         <v>1001</v>
       </c>
@@ -4684,7 +5049,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="14">
         <v>1002</v>
       </c>
@@ -4698,7 +5063,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="18">
         <v>1001</v>
       </c>
@@ -4712,7 +5077,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="14">
         <v>1002</v>
       </c>
@@ -4726,7 +5091,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="14">
         <v>1004</v>
       </c>
@@ -4740,7 +5105,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="14">
         <v>1002</v>
       </c>
@@ -4754,7 +5119,7 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="14">
         <v>1004</v>
       </c>
@@ -4768,7 +5133,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="18">
         <v>1001</v>
       </c>
@@ -4782,7 +5147,7 @@
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="18">
         <v>1001</v>
       </c>
@@ -4796,7 +5161,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="14">
         <v>1002</v>
       </c>
@@ -4810,7 +5175,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="18">
         <v>1001</v>
       </c>
@@ -4824,7 +5189,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="14">
         <v>1002</v>
       </c>
@@ -4838,7 +5203,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="14">
         <v>1004</v>
       </c>
@@ -4852,7 +5217,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="14">
         <v>1002</v>
       </c>
@@ -4866,7 +5231,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="14">
         <v>1004</v>
       </c>
@@ -4880,12 +5245,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="28" t="s">
         <v>108</v>
       </c>
@@ -4899,7 +5264,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="16">
         <v>302632195</v>
       </c>
@@ -4913,7 +5278,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="16">
         <v>302632195</v>
       </c>
@@ -4927,7 +5292,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>305003659</v>
       </c>
@@ -4941,7 +5306,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>305003659</v>
       </c>
@@ -4955,7 +5320,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>305003659</v>
       </c>
@@ -4969,7 +5334,7 @@
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>312143969</v>
       </c>
@@ -4983,7 +5348,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>312143969</v>
       </c>
@@ -4997,12 +5362,12 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="64" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="65" t="s">
         <v>108</v>
       </c>
@@ -5022,7 +5387,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="14">
         <v>302632195</v>
       </c>
@@ -5042,7 +5407,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="14">
         <v>305003659</v>
       </c>
@@ -5062,7 +5427,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="14">
         <v>200940997</v>
       </c>
@@ -5082,7 +5447,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="68"/>
       <c r="B98" s="68"/>
       <c r="C98" s="68"/>
@@ -5090,12 +5455,12 @@
       <c r="E98" s="68"/>
       <c r="F98" s="68"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="64" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="66" t="s">
         <v>240</v>
       </c>
@@ -5106,7 +5471,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="14">
         <v>90000</v>
       </c>
@@ -5117,7 +5482,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="14">
         <v>90001</v>
       </c>
@@ -5128,7 +5493,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="14">
         <v>90002</v>
       </c>
@@ -5167,25 +5532,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.89453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.3671875" customWidth="1"/>
+    <col min="1" max="1" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.3671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="128" t="s">
+    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="129"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="131"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
@@ -5193,7 +5558,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>1</v>
       </c>
@@ -5201,13 +5566,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="23"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>3</v>
       </c>
@@ -5215,7 +5580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>13</v>
       </c>
@@ -5223,7 +5588,7 @@
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
     </row>
-    <row r="9" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>14</v>
       </c>
@@ -5237,7 +5602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="86.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -5251,7 +5616,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -5265,7 +5630,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
@@ -5279,7 +5644,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -5293,7 +5658,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>46</v>
       </c>
@@ -5307,14 +5672,14 @@
         <v>278</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="17" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="128" t="s">
+    <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="129"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="131"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
         <v>0</v>
       </c>
@@ -5322,7 +5687,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="27" t="s">
         <v>1</v>
       </c>
@@ -5330,13 +5695,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="23"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
         <v>3</v>
       </c>
@@ -5344,7 +5709,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
         <v>13</v>
       </c>
@@ -5352,7 +5717,7 @@
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
     </row>
-    <row r="24" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>14</v>
       </c>
@@ -5366,7 +5731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>48</v>
       </c>
@@ -5380,7 +5745,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>49</v>
       </c>
@@ -5394,7 +5759,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="58" t="s">
         <v>279</v>
       </c>
@@ -5408,7 +5773,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="58" t="s">
         <v>281</v>
       </c>
@@ -5422,7 +5787,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>50</v>
       </c>
@@ -5436,7 +5801,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>51</v>
       </c>
@@ -5450,7 +5815,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>52</v>
       </c>
@@ -5464,7 +5829,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>23</v>
       </c>
@@ -5478,25 +5843,25 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="69"/>
       <c r="B33" s="70"/>
       <c r="C33" s="71"/>
       <c r="D33" s="72"/>
     </row>
-    <row r="34" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="69"/>
       <c r="B34" s="70"/>
       <c r="C34" s="71"/>
       <c r="D34" s="72"/>
     </row>
-    <row r="35" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A35" s="128" t="s">
+    <row r="35" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="129"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="131"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="26" t="s">
         <v>0</v>
       </c>
@@ -5504,7 +5869,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="27" t="s">
         <v>1</v>
       </c>
@@ -5512,13 +5877,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B38" s="23"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="27" t="s">
         <v>3</v>
       </c>
@@ -5526,7 +5891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="21" t="s">
         <v>13</v>
       </c>
@@ -5534,7 +5899,7 @@
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
     </row>
-    <row r="43" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
         <v>14</v>
       </c>
@@ -5548,7 +5913,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>266</v>
       </c>
@@ -5562,7 +5927,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="86.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:4" ht="91" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>267</v>
       </c>
@@ -5576,7 +5941,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="58" t="s">
         <v>328</v>
       </c>
@@ -5590,7 +5955,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="58" t="s">
         <v>268</v>
       </c>
@@ -5604,7 +5969,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>23</v>
       </c>
@@ -5618,25 +5983,25 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="69"/>
       <c r="B49" s="70"/>
       <c r="C49" s="71"/>
       <c r="D49" s="72"/>
     </row>
-    <row r="50" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="69"/>
       <c r="B50" s="70"/>
       <c r="C50" s="71"/>
       <c r="D50" s="72"/>
     </row>
-    <row r="51" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A51" s="128" t="s">
+    <row r="51" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="130" t="s">
         <v>259</v>
       </c>
-      <c r="B51" s="129"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="131"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="26" t="s">
         <v>0</v>
       </c>
@@ -5644,7 +6009,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="27" t="s">
         <v>1</v>
       </c>
@@ -5652,13 +6017,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B54" s="23"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="27" t="s">
         <v>3</v>
       </c>
@@ -5666,11 +6031,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="74"/>
       <c r="B56" s="75"/>
     </row>
-    <row r="58" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
         <v>13</v>
       </c>
@@ -5678,7 +6043,7 @@
       <c r="C58" s="39"/>
       <c r="D58" s="40"/>
     </row>
-    <row r="59" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="31" t="s">
         <v>14</v>
       </c>
@@ -5692,7 +6057,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="86.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:4" ht="91" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>182</v>
       </c>
@@ -5706,7 +6071,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>183</v>
       </c>
@@ -5720,7 +6085,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>185</v>
       </c>
@@ -5734,7 +6099,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>23</v>
       </c>
@@ -5748,14 +6113,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="66" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A66" s="128" t="s">
+    <row r="65" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="130" t="s">
         <v>190</v>
       </c>
-      <c r="B66" s="129"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B66" s="131"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="26" t="s">
         <v>0</v>
       </c>
@@ -5763,7 +6128,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="27" t="s">
         <v>1</v>
       </c>
@@ -5771,13 +6136,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B69" s="23"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="27" t="s">
         <v>3</v>
       </c>
@@ -5785,12 +6150,12 @@
         <v>264</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="31" t="s">
         <v>14</v>
       </c>
@@ -5804,7 +6169,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>192</v>
       </c>
@@ -5818,7 +6183,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="101.1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:4" ht="106" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>193</v>
       </c>
@@ -5832,7 +6197,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>200</v>
       </c>
@@ -5846,7 +6211,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>23</v>
       </c>
@@ -5860,14 +6225,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="80" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A80" s="128" t="s">
+    <row r="79" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="130" t="s">
         <v>196</v>
       </c>
-      <c r="B80" s="129"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B80" s="131"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="26" t="s">
         <v>0</v>
       </c>
@@ -5875,7 +6240,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="27" t="s">
         <v>1</v>
       </c>
@@ -5883,13 +6248,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B83" s="23"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="27" t="s">
         <v>3</v>
       </c>
@@ -5897,12 +6262,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="31" t="s">
         <v>14</v>
       </c>
@@ -5916,7 +6281,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>210</v>
       </c>
@@ -5930,7 +6295,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="173.1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:4" ht="166" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>212</v>
       </c>
@@ -5944,7 +6309,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="58" t="s">
         <v>214</v>
       </c>
@@ -5958,7 +6323,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>23</v>
       </c>
@@ -5972,14 +6337,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="94" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A94" s="128" t="s">
+    <row r="93" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="130" t="s">
         <v>198</v>
       </c>
-      <c r="B94" s="129"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B94" s="131"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="26" t="s">
         <v>0</v>
       </c>
@@ -5987,7 +6352,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="27" t="s">
         <v>1</v>
       </c>
@@ -5995,13 +6360,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B97" s="23"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="27" t="s">
         <v>3</v>
       </c>
@@ -6009,12 +6374,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="31" t="s">
         <v>14</v>
       </c>
@@ -6028,7 +6393,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>217</v>
       </c>
@@ -6042,7 +6407,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="115.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:4" ht="121" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>229</v>
       </c>
@@ -6056,7 +6421,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="86.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>224</v>
       </c>
@@ -6070,7 +6435,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>23</v>
       </c>
@@ -6103,25 +6468,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.3125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.62890625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.3671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.68359375" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="128" t="s">
+    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="130" t="s">
         <v>315</v>
       </c>
-      <c r="B1" s="129"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="131"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
@@ -6129,7 +6494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>1</v>
       </c>
@@ -6137,27 +6502,27 @@
         <v>287</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="78"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="79"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="76"/>
     </row>
-    <row r="7" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="80" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="91" t="s">
         <v>14</v>
       </c>
@@ -6171,7 +6536,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="81" t="s">
         <v>288</v>
       </c>
@@ -6185,7 +6550,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A10" s="81" t="s">
         <v>291</v>
       </c>
@@ -6199,7 +6564,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A11" s="81" t="s">
         <v>293</v>
       </c>
@@ -6213,8 +6578,8 @@
         <v>295</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="86.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="132" t="s">
+    <row r="12" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A12" s="134" t="s">
         <v>296</v>
       </c>
       <c r="B12" s="83" t="s">
@@ -6223,32 +6588,32 @@
       <c r="C12" s="85" t="s">
         <v>333</v>
       </c>
-      <c r="D12" s="131" t="s">
+      <c r="D12" s="133" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="86.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="133"/>
+    <row r="13" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A13" s="135"/>
       <c r="B13" s="83" t="s">
         <v>297</v>
       </c>
       <c r="C13" s="83" t="s">
         <v>334</v>
       </c>
-      <c r="D13" s="131"/>
-    </row>
-    <row r="14" spans="1:4" ht="129.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="133"/>
+      <c r="D13" s="133"/>
+    </row>
+    <row r="14" spans="1:4" ht="135" x14ac:dyDescent="0.2">
+      <c r="A14" s="135"/>
       <c r="B14" s="85" t="s">
         <v>298</v>
       </c>
       <c r="C14" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D14" s="131"/>
-    </row>
-    <row r="15" spans="1:4" ht="86.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="130" t="s">
+      <c r="D14" s="133"/>
+    </row>
+    <row r="15" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A15" s="132" t="s">
         <v>337</v>
       </c>
       <c r="B15" s="83" t="s">
@@ -6257,41 +6622,41 @@
       <c r="C15" s="85" t="s">
         <v>333</v>
       </c>
-      <c r="D15" s="131" t="s">
+      <c r="D15" s="133" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="100.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="130"/>
+    <row r="16" spans="1:4" ht="105" x14ac:dyDescent="0.2">
+      <c r="A16" s="132"/>
       <c r="B16" s="83" t="s">
         <v>300</v>
       </c>
       <c r="C16" s="83" t="s">
         <v>335</v>
       </c>
-      <c r="D16" s="131"/>
-    </row>
-    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="130"/>
+      <c r="D16" s="133"/>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A17" s="132"/>
       <c r="B17" s="83" t="s">
         <v>301</v>
       </c>
       <c r="C17" s="86" t="s">
         <v>302</v>
       </c>
-      <c r="D17" s="131"/>
-    </row>
-    <row r="18" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="130"/>
+      <c r="D17" s="133"/>
+    </row>
+    <row r="18" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="132"/>
       <c r="B18" s="83" t="s">
         <v>303</v>
       </c>
       <c r="C18" s="86" t="s">
         <v>304</v>
       </c>
-      <c r="D18" s="131"/>
-    </row>
-    <row r="19" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D18" s="133"/>
+    </row>
+    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A19" s="82" t="s">
         <v>305</v>
       </c>
@@ -6305,7 +6670,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A20" s="81" t="s">
         <v>308</v>
       </c>
@@ -6317,7 +6682,7 @@
       </c>
       <c r="D20" s="87"/>
     </row>
-    <row r="21" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A21" s="81" t="s">
         <v>310</v>
       </c>
@@ -6331,7 +6696,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A22" s="81" t="s">
         <v>312</v>
       </c>
@@ -6362,25 +6727,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.62890625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.3125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.68359375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.3671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="128" t="s">
+    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="129"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="131"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
@@ -6388,7 +6753,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>1</v>
       </c>
@@ -6396,13 +6761,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="23"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>3</v>
       </c>
@@ -6410,7 +6775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>13</v>
       </c>
@@ -6418,7 +6783,7 @@
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
     </row>
-    <row r="9" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>14</v>
       </c>
@@ -6432,7 +6797,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="187.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:4" ht="196" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -6446,7 +6811,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="158.69999999999999" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:4" ht="166" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -6460,7 +6825,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="129.9" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:4" ht="136" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
@@ -6474,7 +6839,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="86.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:4" ht="91" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -6488,7 +6853,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="115.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:4" ht="121" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>46</v>
       </c>
@@ -6502,16 +6867,16 @@
         <v>340</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="17" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="128" t="s">
+    <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="130" t="s">
         <v>341</v>
       </c>
-      <c r="B17" s="129"/>
+      <c r="B17" s="131"/>
       <c r="C17" s="101"/>
       <c r="D17" s="101"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="102" t="s">
         <v>0</v>
       </c>
@@ -6521,7 +6886,7 @@
       <c r="C18" s="101"/>
       <c r="D18" s="101"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="104" t="s">
         <v>1</v>
       </c>
@@ -6531,7 +6896,7 @@
       <c r="C19" s="101"/>
       <c r="D19" s="101"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="104" t="s">
         <v>2</v>
       </c>
@@ -6539,7 +6904,7 @@
       <c r="C20" s="101"/>
       <c r="D20" s="101"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="104" t="s">
         <v>3</v>
       </c>
@@ -6549,13 +6914,13 @@
       <c r="C21" s="101"/>
       <c r="D21" s="101"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="101"/>
       <c r="B22" s="101"/>
       <c r="C22" s="101"/>
       <c r="D22" s="101"/>
     </row>
-    <row r="23" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
         <v>13</v>
       </c>
@@ -6563,7 +6928,7 @@
       <c r="C23" s="20"/>
       <c r="D23" s="107"/>
     </row>
-    <row r="24" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>14</v>
       </c>
@@ -6577,7 +6942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="187.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" ht="180" x14ac:dyDescent="0.2">
       <c r="A25" s="108" t="s">
         <v>343</v>
       </c>
@@ -6591,7 +6956,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="172.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" ht="180" x14ac:dyDescent="0.2">
       <c r="A26" s="82" t="s">
         <v>19</v>
       </c>
@@ -6605,20 +6970,20 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="44"/>
       <c r="B27" s="113"/>
       <c r="C27" s="113"/>
       <c r="D27" s="114"/>
     </row>
-    <row r="28" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="29" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A29" s="128" t="s">
+    <row r="28" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="130" t="s">
         <v>349</v>
       </c>
-      <c r="B29" s="129"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="131"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="26" t="s">
         <v>0</v>
       </c>
@@ -6626,7 +6991,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="27" t="s">
         <v>1</v>
       </c>
@@ -6634,13 +6999,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="23"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="27" t="s">
         <v>3</v>
       </c>
@@ -6648,11 +7013,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="74"/>
       <c r="B34" s="115"/>
     </row>
-    <row r="35" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="21" t="s">
         <v>13</v>
       </c>
@@ -6660,7 +7025,7 @@
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
     </row>
-    <row r="36" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
         <v>14</v>
       </c>
@@ -6674,7 +7039,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="129.9" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:4" ht="121" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>351</v>
       </c>
@@ -6688,7 +7053,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="187.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:4" ht="151" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>355</v>
       </c>
@@ -6702,7 +7067,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="86.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:4" ht="91" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>23</v>
       </c>
@@ -6731,25 +7096,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.26171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1015625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.62890625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.15625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="134" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="136" t="s">
         <v>360</v>
       </c>
-      <c r="B1" s="134"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="136"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="116" t="s">
         <v>361</v>
       </c>
@@ -6757,7 +7122,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="116" t="s">
         <v>1</v>
       </c>
@@ -6765,13 +7130,13 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="116" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="67"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="116" t="s">
         <v>3</v>
       </c>
@@ -6779,7 +7144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>13</v>
       </c>
@@ -6787,7 +7152,7 @@
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="117" t="s">
         <v>14</v>
       </c>
@@ -6801,7 +7166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="158.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" ht="135" x14ac:dyDescent="0.2">
       <c r="A10" s="94" t="s">
         <v>363</v>
       </c>
@@ -6815,7 +7180,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="187.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" ht="165" x14ac:dyDescent="0.2">
       <c r="A11" s="94" t="s">
         <v>367</v>
       </c>
@@ -6829,7 +7194,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" ht="105" x14ac:dyDescent="0.2">
       <c r="A12" s="94" t="s">
         <v>371</v>
       </c>
@@ -6843,7 +7208,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="94" t="s">
         <v>23</v>
       </c>
@@ -6857,13 +7222,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="134" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="136" t="s">
         <v>376</v>
       </c>
-      <c r="B16" s="134"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="136"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="116" t="s">
         <v>361</v>
       </c>
@@ -6871,7 +7236,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="116" t="s">
         <v>1</v>
       </c>
@@ -6879,13 +7244,13 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="116" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="67"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="116" t="s">
         <v>3</v>
       </c>
@@ -6893,7 +7258,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
         <v>13</v>
       </c>
@@ -6901,7 +7266,7 @@
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="117" t="s">
         <v>14</v>
       </c>
@@ -6915,7 +7280,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" s="94" t="s">
         <v>379</v>
       </c>
@@ -6929,7 +7294,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A26" s="94" t="s">
         <v>23</v>
       </c>
@@ -6943,13 +7308,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="122" t="s">
         <v>384</v>
       </c>
       <c r="B29" s="122"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="116" t="s">
         <v>361</v>
       </c>
@@ -6957,7 +7322,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="116" t="s">
         <v>1</v>
       </c>
@@ -6965,13 +7330,13 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="116" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="67"/>
     </row>
-    <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A33" s="123" t="s">
         <v>3</v>
       </c>
@@ -6979,7 +7344,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="21" t="s">
         <v>13</v>
       </c>
@@ -6987,7 +7352,7 @@
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="117" t="s">
         <v>14</v>
       </c>
@@ -7001,7 +7366,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" ht="120" x14ac:dyDescent="0.2">
       <c r="A37" s="124" t="s">
         <v>387</v>
       </c>
@@ -7015,7 +7380,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A38" s="124" t="s">
         <v>391</v>
       </c>
@@ -7029,7 +7394,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" ht="105" x14ac:dyDescent="0.2">
       <c r="A39" s="94" t="s">
         <v>394</v>
       </c>
@@ -7043,7 +7408,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A40" s="94" t="s">
         <v>23</v>
       </c>
@@ -7057,13 +7422,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="134" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="136" t="s">
         <v>398</v>
       </c>
-      <c r="B43" s="134"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="136"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="116" t="s">
         <v>361</v>
       </c>
@@ -7071,7 +7436,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="116" t="s">
         <v>1</v>
       </c>
@@ -7079,13 +7444,13 @@
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="116" t="s">
         <v>2</v>
       </c>
       <c r="B46" s="67"/>
     </row>
-    <row r="47" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A47" s="89" t="s">
         <v>3</v>
       </c>
@@ -7093,7 +7458,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="21" t="s">
         <v>13</v>
       </c>
@@ -7101,7 +7466,7 @@
       <c r="C49" s="20"/>
       <c r="D49" s="20"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="117" t="s">
         <v>14</v>
       </c>
@@ -7115,7 +7480,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="144" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:4" ht="135" x14ac:dyDescent="0.2">
       <c r="A51" s="94" t="s">
         <v>401</v>
       </c>
@@ -7129,7 +7494,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:4" ht="105" x14ac:dyDescent="0.2">
       <c r="A52" s="94" t="s">
         <v>404</v>
       </c>
@@ -7143,7 +7508,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A53" s="94" t="s">
         <v>23</v>
       </c>
@@ -7173,7 +7538,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7181,25 +7546,28 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.47265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.47265625" customWidth="1"/>
+    <col min="1" max="1" width="42.83203125" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="128" t="s">
+    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="129"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="131"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
@@ -7207,7 +7575,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>1</v>
       </c>
@@ -7215,13 +7583,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="23"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>3</v>
       </c>
@@ -7229,9 +7597,400 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="143" t="s">
+        <v>409</v>
+      </c>
+      <c r="B8" s="143"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="137" t="s">
+        <v>361</v>
+      </c>
+      <c r="B9" s="137" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="67"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="138" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="139" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="139" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="139" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A16" s="129" t="s">
+        <v>414</v>
+      </c>
+      <c r="B16" s="124" t="s">
+        <v>413</v>
+      </c>
+      <c r="C16" s="124" t="s">
+        <v>412</v>
+      </c>
+      <c r="D16" s="124" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A17" s="129" t="s">
+        <v>418</v>
+      </c>
+      <c r="B17" s="124" t="s">
+        <v>417</v>
+      </c>
+      <c r="C17" s="124" t="s">
+        <v>416</v>
+      </c>
+      <c r="D17" s="124" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="143" t="s">
+        <v>419</v>
+      </c>
+      <c r="B21" s="143"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="137" t="s">
+        <v>361</v>
+      </c>
+      <c r="B22" s="137" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="67" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="67"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="67" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="138" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="139" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="139" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="139" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="285" x14ac:dyDescent="0.2">
+      <c r="A30" s="129" t="s">
+        <v>424</v>
+      </c>
+      <c r="B30" s="124" t="s">
+        <v>423</v>
+      </c>
+      <c r="C30" s="124" t="s">
+        <v>422</v>
+      </c>
+      <c r="D30" s="140" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="135" x14ac:dyDescent="0.2">
+      <c r="A31" s="129" t="s">
+        <v>428</v>
+      </c>
+      <c r="B31" s="124" t="s">
+        <v>427</v>
+      </c>
+      <c r="C31" s="124" t="s">
+        <v>426</v>
+      </c>
+      <c r="D31" s="124" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="255" x14ac:dyDescent="0.2">
+      <c r="A32" s="129" t="s">
+        <v>432</v>
+      </c>
+      <c r="B32" s="124" t="s">
+        <v>431</v>
+      </c>
+      <c r="C32" s="141" t="s">
+        <v>430</v>
+      </c>
+      <c r="D32" s="124" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="135" x14ac:dyDescent="0.2">
+      <c r="A33" s="129" t="s">
+        <v>436</v>
+      </c>
+      <c r="B33" s="124" t="s">
+        <v>435</v>
+      </c>
+      <c r="C33" s="124" t="s">
+        <v>434</v>
+      </c>
+      <c r="D33" s="124" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="390" x14ac:dyDescent="0.2">
+      <c r="A34" s="128" t="s">
+        <v>440</v>
+      </c>
+      <c r="B34" s="124" t="s">
+        <v>439</v>
+      </c>
+      <c r="C34" s="124" t="s">
+        <v>438</v>
+      </c>
+      <c r="D34" s="124" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A35" s="128" t="s">
+        <v>443</v>
+      </c>
+      <c r="B35" s="124" t="s">
+        <v>442</v>
+      </c>
+      <c r="C35" s="124" t="s">
+        <v>441</v>
+      </c>
+      <c r="D35" s="124" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A36" s="128" t="s">
+        <v>446</v>
+      </c>
+      <c r="B36" s="124" t="s">
+        <v>445</v>
+      </c>
+      <c r="C36" s="124" t="s">
+        <v>444</v>
+      </c>
+      <c r="D36" s="124" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="144" t="s">
+        <v>447</v>
+      </c>
+      <c r="B38" s="142"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="137" t="s">
+        <v>448</v>
+      </c>
+      <c r="B39" s="137" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="B40" s="67" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="67"/>
+      <c r="B41" s="67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="67" t="s">
+        <v>410</v>
+      </c>
+      <c r="B42" s="67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="138" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="139" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="139" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="139" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="315" x14ac:dyDescent="0.2">
+      <c r="A46" s="129" t="s">
+        <v>452</v>
+      </c>
+      <c r="B46" s="124" t="s">
+        <v>451</v>
+      </c>
+      <c r="C46" s="124" t="s">
+        <v>450</v>
+      </c>
+      <c r="D46" s="124" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="135" x14ac:dyDescent="0.2">
+      <c r="A47" s="129" t="s">
+        <v>456</v>
+      </c>
+      <c r="B47" s="124" t="s">
+        <v>455</v>
+      </c>
+      <c r="C47" s="124" t="s">
+        <v>454</v>
+      </c>
+      <c r="D47" s="124" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="135" x14ac:dyDescent="0.2">
+      <c r="A48" s="129" t="s">
+        <v>459</v>
+      </c>
+      <c r="B48" s="124" t="s">
+        <v>458</v>
+      </c>
+      <c r="C48" s="124" t="s">
+        <v>457</v>
+      </c>
+      <c r="D48" s="124" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="150" x14ac:dyDescent="0.2">
+      <c r="A49" s="129" t="s">
+        <v>462</v>
+      </c>
+      <c r="B49" s="124" t="s">
+        <v>461</v>
+      </c>
+      <c r="C49" s="124" t="s">
+        <v>460</v>
+      </c>
+      <c r="D49" s="124" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="105" x14ac:dyDescent="0.2">
+      <c r="A50" s="129" t="s">
+        <v>465</v>
+      </c>
+      <c r="B50" s="124" t="s">
+        <v>464</v>
+      </c>
+      <c r="C50" s="124" t="s">
+        <v>463</v>
+      </c>
+      <c r="D50" s="141" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="105" x14ac:dyDescent="0.2">
+      <c r="A51" s="128" t="s">
+        <v>468</v>
+      </c>
+      <c r="B51" s="124" t="s">
+        <v>467</v>
+      </c>
+      <c r="C51" s="124" t="s">
+        <v>466</v>
+      </c>
+      <c r="D51" s="129"/>
+    </row>
+    <row r="52" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A52" s="129" t="s">
+        <v>446</v>
+      </c>
+      <c r="B52" s="124" t="s">
+        <v>445</v>
+      </c>
+      <c r="C52" s="124" t="s">
+        <v>444</v>
+      </c>
+      <c r="D52" s="124" t="s">
+        <v>415</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A38:B38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Acceptance Tests/Acceptance Tests.xlsx
+++ b/Acceptance Tests/Acceptance Tests.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="469">
   <si>
     <t xml:space="preserve">Use Case: </t>
   </si>
@@ -3514,7 +3514,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3871,25 +3871,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
@@ -3901,13 +3886,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5545,10 +5551,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="131"/>
+      <c r="B1" s="138"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -5674,10 +5680,10 @@
     </row>
     <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="130" t="s">
+      <c r="A17" s="137" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="131"/>
+      <c r="B17" s="138"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
@@ -5856,10 +5862,10 @@
       <c r="D34" s="72"/>
     </row>
     <row r="35" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="130" t="s">
+      <c r="A35" s="137" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="131"/>
+      <c r="B35" s="138"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="26" t="s">
@@ -5996,10 +6002,10 @@
       <c r="D50" s="72"/>
     </row>
     <row r="51" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="130" t="s">
+      <c r="A51" s="137" t="s">
         <v>259</v>
       </c>
-      <c r="B51" s="131"/>
+      <c r="B51" s="138"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="26" t="s">
@@ -6115,10 +6121,10 @@
     </row>
     <row r="65" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="130" t="s">
+      <c r="A66" s="137" t="s">
         <v>190</v>
       </c>
-      <c r="B66" s="131"/>
+      <c r="B66" s="138"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="26" t="s">
@@ -6227,10 +6233,10 @@
     </row>
     <row r="79" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="80" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="130" t="s">
+      <c r="A80" s="137" t="s">
         <v>196</v>
       </c>
-      <c r="B80" s="131"/>
+      <c r="B80" s="138"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="26" t="s">
@@ -6339,10 +6345,10 @@
     </row>
     <row r="93" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="94" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="130" t="s">
+      <c r="A94" s="137" t="s">
         <v>198</v>
       </c>
-      <c r="B94" s="131"/>
+      <c r="B94" s="138"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="26" t="s">
@@ -6481,10 +6487,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="137" t="s">
         <v>315</v>
       </c>
-      <c r="B1" s="131"/>
+      <c r="B1" s="138"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -6579,7 +6585,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A12" s="134" t="s">
+      <c r="A12" s="141" t="s">
         <v>296</v>
       </c>
       <c r="B12" s="83" t="s">
@@ -6588,32 +6594,32 @@
       <c r="C12" s="85" t="s">
         <v>333</v>
       </c>
-      <c r="D12" s="133" t="s">
+      <c r="D12" s="140" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A13" s="135"/>
+      <c r="A13" s="142"/>
       <c r="B13" s="83" t="s">
         <v>297</v>
       </c>
       <c r="C13" s="83" t="s">
         <v>334</v>
       </c>
-      <c r="D13" s="133"/>
+      <c r="D13" s="140"/>
     </row>
     <row r="14" spans="1:4" ht="135" x14ac:dyDescent="0.2">
-      <c r="A14" s="135"/>
+      <c r="A14" s="142"/>
       <c r="B14" s="85" t="s">
         <v>298</v>
       </c>
       <c r="C14" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D14" s="133"/>
+      <c r="D14" s="140"/>
     </row>
     <row r="15" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A15" s="132" t="s">
+      <c r="A15" s="139" t="s">
         <v>337</v>
       </c>
       <c r="B15" s="83" t="s">
@@ -6622,39 +6628,39 @@
       <c r="C15" s="85" t="s">
         <v>333</v>
       </c>
-      <c r="D15" s="133" t="s">
+      <c r="D15" s="140" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="105" x14ac:dyDescent="0.2">
-      <c r="A16" s="132"/>
+      <c r="A16" s="139"/>
       <c r="B16" s="83" t="s">
         <v>300</v>
       </c>
       <c r="C16" s="83" t="s">
         <v>335</v>
       </c>
-      <c r="D16" s="133"/>
+      <c r="D16" s="140"/>
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A17" s="132"/>
+      <c r="A17" s="139"/>
       <c r="B17" s="83" t="s">
         <v>301</v>
       </c>
       <c r="C17" s="86" t="s">
         <v>302</v>
       </c>
-      <c r="D17" s="133"/>
+      <c r="D17" s="140"/>
     </row>
     <row r="18" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="132"/>
+      <c r="A18" s="139"/>
       <c r="B18" s="83" t="s">
         <v>303</v>
       </c>
       <c r="C18" s="86" t="s">
         <v>304</v>
       </c>
-      <c r="D18" s="133"/>
+      <c r="D18" s="140"/>
     </row>
     <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A19" s="82" t="s">
@@ -6740,10 +6746,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="131"/>
+      <c r="B1" s="138"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -6869,10 +6875,10 @@
     </row>
     <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="130" t="s">
+      <c r="A17" s="137" t="s">
         <v>341</v>
       </c>
-      <c r="B17" s="131"/>
+      <c r="B17" s="138"/>
       <c r="C17" s="101"/>
       <c r="D17" s="101"/>
     </row>
@@ -6978,10 +6984,10 @@
     </row>
     <row r="28" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="130" t="s">
+      <c r="A29" s="137" t="s">
         <v>349</v>
       </c>
-      <c r="B29" s="131"/>
+      <c r="B29" s="138"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="26" t="s">
@@ -7109,10 +7115,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="143" t="s">
         <v>360</v>
       </c>
-      <c r="B1" s="136"/>
+      <c r="B1" s="143"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="116" t="s">
@@ -7223,10 +7229,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="136" t="s">
+      <c r="A16" s="143" t="s">
         <v>376</v>
       </c>
-      <c r="B16" s="136"/>
+      <c r="B16" s="143"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="116" t="s">
@@ -7423,10 +7429,10 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="136" t="s">
+      <c r="A43" s="143" t="s">
         <v>398</v>
       </c>
-      <c r="B43" s="136"/>
+      <c r="B43" s="143"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="116" t="s">
@@ -7534,12 +7540,413 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="200" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="144" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1" s="144"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="132" t="s">
+        <v>361</v>
+      </c>
+      <c r="B2" s="132" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="67"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="133" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="134" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="134" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="134" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="134" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A10" s="131" t="s">
+        <v>414</v>
+      </c>
+      <c r="B10" s="124" t="s">
+        <v>413</v>
+      </c>
+      <c r="C10" s="124" t="s">
+        <v>412</v>
+      </c>
+      <c r="D10" s="124" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A11" s="131" t="s">
+        <v>418</v>
+      </c>
+      <c r="B11" s="124" t="s">
+        <v>417</v>
+      </c>
+      <c r="C11" s="124" t="s">
+        <v>416</v>
+      </c>
+      <c r="D11" s="124" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="144" t="s">
+        <v>419</v>
+      </c>
+      <c r="B14" s="144"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="132" t="s">
+        <v>361</v>
+      </c>
+      <c r="B15" s="132" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="67" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="67"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="67" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="133" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="134" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="134" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="134" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="134" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+      <c r="A23" s="131" t="s">
+        <v>424</v>
+      </c>
+      <c r="B23" s="124" t="s">
+        <v>423</v>
+      </c>
+      <c r="C23" s="124" t="s">
+        <v>422</v>
+      </c>
+      <c r="D23" s="135" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="135" x14ac:dyDescent="0.2">
+      <c r="A24" s="131" t="s">
+        <v>428</v>
+      </c>
+      <c r="B24" s="124" t="s">
+        <v>427</v>
+      </c>
+      <c r="C24" s="124" t="s">
+        <v>426</v>
+      </c>
+      <c r="D24" s="124" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="210" x14ac:dyDescent="0.2">
+      <c r="A25" s="131" t="s">
+        <v>432</v>
+      </c>
+      <c r="B25" s="124" t="s">
+        <v>431</v>
+      </c>
+      <c r="C25" s="136" t="s">
+        <v>430</v>
+      </c>
+      <c r="D25" s="124" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="135" x14ac:dyDescent="0.2">
+      <c r="A26" s="131" t="s">
+        <v>436</v>
+      </c>
+      <c r="B26" s="124" t="s">
+        <v>435</v>
+      </c>
+      <c r="C26" s="124" t="s">
+        <v>434</v>
+      </c>
+      <c r="D26" s="124" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="409" x14ac:dyDescent="0.2">
+      <c r="A27" s="130" t="s">
+        <v>440</v>
+      </c>
+      <c r="B27" s="124" t="s">
+        <v>439</v>
+      </c>
+      <c r="C27" s="124" t="s">
+        <v>438</v>
+      </c>
+      <c r="D27" s="124" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="105" x14ac:dyDescent="0.2">
+      <c r="A28" s="130" t="s">
+        <v>443</v>
+      </c>
+      <c r="B28" s="124" t="s">
+        <v>442</v>
+      </c>
+      <c r="C28" s="124" t="s">
+        <v>441</v>
+      </c>
+      <c r="D28" s="124" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A29" s="130" t="s">
+        <v>446</v>
+      </c>
+      <c r="B29" s="124" t="s">
+        <v>445</v>
+      </c>
+      <c r="C29" s="124" t="s">
+        <v>444</v>
+      </c>
+      <c r="D29" s="124" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="144" t="s">
+        <v>447</v>
+      </c>
+      <c r="B33" s="144"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="132" t="s">
+        <v>361</v>
+      </c>
+      <c r="B34" s="132" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="67" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="67"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="67" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="133" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="134" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="134" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="134" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="134" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="255" x14ac:dyDescent="0.2">
+      <c r="A42" s="131" t="s">
+        <v>452</v>
+      </c>
+      <c r="B42" s="124" t="s">
+        <v>451</v>
+      </c>
+      <c r="C42" s="124" t="s">
+        <v>450</v>
+      </c>
+      <c r="D42" s="124" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="135" x14ac:dyDescent="0.2">
+      <c r="A43" s="131" t="s">
+        <v>456</v>
+      </c>
+      <c r="B43" s="124" t="s">
+        <v>455</v>
+      </c>
+      <c r="C43" s="124" t="s">
+        <v>454</v>
+      </c>
+      <c r="D43" s="124" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="135" x14ac:dyDescent="0.2">
+      <c r="A44" s="131" t="s">
+        <v>459</v>
+      </c>
+      <c r="B44" s="124" t="s">
+        <v>458</v>
+      </c>
+      <c r="C44" s="124" t="s">
+        <v>457</v>
+      </c>
+      <c r="D44" s="124" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+      <c r="A45" s="131" t="s">
+        <v>462</v>
+      </c>
+      <c r="B45" s="124" t="s">
+        <v>461</v>
+      </c>
+      <c r="C45" s="124" t="s">
+        <v>460</v>
+      </c>
+      <c r="D45" s="124" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+      <c r="A46" s="131" t="s">
+        <v>465</v>
+      </c>
+      <c r="B46" s="124" t="s">
+        <v>464</v>
+      </c>
+      <c r="C46" s="124" t="s">
+        <v>463</v>
+      </c>
+      <c r="D46" s="136" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+      <c r="A47" s="130" t="s">
+        <v>468</v>
+      </c>
+      <c r="B47" s="124" t="s">
+        <v>467</v>
+      </c>
+      <c r="C47" s="124" t="s">
+        <v>466</v>
+      </c>
+      <c r="D47" s="131"/>
+    </row>
+    <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A48" s="131" t="s">
+        <v>446</v>
+      </c>
+      <c r="B48" s="124" t="s">
+        <v>445</v>
+      </c>
+      <c r="C48" s="124" t="s">
+        <v>444</v>
+      </c>
+      <c r="D48" s="124" t="s">
+        <v>415</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A33:B33"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7548,7 +7955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -7562,10 +7969,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="131"/>
+      <c r="B1" s="138"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -7598,16 +8005,16 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="143" t="s">
+      <c r="A8" s="144" t="s">
         <v>409</v>
       </c>
-      <c r="B8" s="143"/>
+      <c r="B8" s="144"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="137" t="s">
+      <c r="A9" s="132" t="s">
         <v>361</v>
       </c>
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="132" t="s">
         <v>410</v>
       </c>
     </row>
@@ -7634,25 +8041,25 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="138" t="s">
+      <c r="A14" s="133" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="139" t="s">
+      <c r="A15" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="139" t="s">
+      <c r="B15" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="139" t="s">
+      <c r="C15" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="139" t="s">
+      <c r="D15" s="134" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A16" s="129" t="s">
         <v>414</v>
       </c>
@@ -7666,7 +8073,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" s="129" t="s">
         <v>418</v>
       </c>
@@ -7681,16 +8088,16 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="143" t="s">
+      <c r="A21" s="144" t="s">
         <v>419</v>
       </c>
-      <c r="B21" s="143"/>
+      <c r="B21" s="144"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="137" t="s">
+      <c r="A22" s="132" t="s">
         <v>361</v>
       </c>
-      <c r="B22" s="137" t="s">
+      <c r="B22" s="132" t="s">
         <v>420</v>
       </c>
     </row>
@@ -7717,25 +8124,25 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="138" t="s">
+      <c r="A28" s="133" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="139" t="s">
+      <c r="A29" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="139" t="s">
+      <c r="B29" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="139" t="s">
+      <c r="C29" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="139" t="s">
+      <c r="D29" s="134" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="285" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="165" x14ac:dyDescent="0.2">
       <c r="A30" s="129" t="s">
         <v>424</v>
       </c>
@@ -7745,11 +8152,11 @@
       <c r="C30" s="124" t="s">
         <v>422</v>
       </c>
-      <c r="D30" s="140" t="s">
+      <c r="D30" s="135" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="135" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="120" x14ac:dyDescent="0.2">
       <c r="A31" s="129" t="s">
         <v>428</v>
       </c>
@@ -7763,21 +8170,21 @@
         <v>425</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="255" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="135" x14ac:dyDescent="0.2">
       <c r="A32" s="129" t="s">
         <v>432</v>
       </c>
       <c r="B32" s="124" t="s">
         <v>431</v>
       </c>
-      <c r="C32" s="141" t="s">
+      <c r="C32" s="136" t="s">
         <v>430</v>
       </c>
       <c r="D32" s="124" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="135" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="120" x14ac:dyDescent="0.2">
       <c r="A33" s="129" t="s">
         <v>436</v>
       </c>
@@ -7819,7 +8226,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A36" s="128" t="s">
         <v>446</v>
       </c>
@@ -7835,16 +8242,16 @@
     </row>
     <row r="37" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="144" t="s">
+      <c r="A38" s="145" t="s">
         <v>447</v>
       </c>
-      <c r="B38" s="142"/>
+      <c r="B38" s="146"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="137" t="s">
+      <c r="A39" s="132" t="s">
         <v>448</v>
       </c>
-      <c r="B39" s="137" t="s">
+      <c r="B39" s="132" t="s">
         <v>361</v>
       </c>
     </row>
@@ -7871,25 +8278,25 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="138" t="s">
+      <c r="A44" s="133" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="139" t="s">
+      <c r="A45" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="139" t="s">
+      <c r="B45" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="139" t="s">
+      <c r="C45" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="139" t="s">
+      <c r="D45" s="134" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="315" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="180" x14ac:dyDescent="0.2">
       <c r="A46" s="129" t="s">
         <v>452</v>
       </c>
@@ -7903,7 +8310,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="135" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="120" x14ac:dyDescent="0.2">
       <c r="A47" s="129" t="s">
         <v>456</v>
       </c>
@@ -7917,7 +8324,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="135" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="120" x14ac:dyDescent="0.2">
       <c r="A48" s="129" t="s">
         <v>459</v>
       </c>
@@ -7931,7 +8338,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="150" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="105" x14ac:dyDescent="0.2">
       <c r="A49" s="129" t="s">
         <v>462</v>
       </c>
@@ -7955,7 +8362,7 @@
       <c r="C50" s="124" t="s">
         <v>463</v>
       </c>
-      <c r="D50" s="141" t="s">
+      <c r="D50" s="136" t="s">
         <v>437</v>
       </c>
     </row>
@@ -7971,7 +8378,7 @@
       </c>
       <c r="D51" s="129"/>
     </row>
-    <row r="52" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A52" s="129" t="s">
         <v>446</v>
       </c>

--- a/Acceptance Tests/Acceptance Tests.xlsx
+++ b/Acceptance Tests/Acceptance Tests.xlsx
@@ -1,42 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26905"/>
-  <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asaf/Desktop/GHealth-System/Acceptance Tests/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25602" windowHeight="16002" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Database" sheetId="2" r:id="rId1"/>
-    <sheet name="Dispatcher" sheetId="1" r:id="rId2"/>
-    <sheet name="User" sheetId="3" r:id="rId3"/>
-    <sheet name="Specialist" sheetId="4" r:id="rId4"/>
-    <sheet name="Lab Worker" sheetId="5" r:id="rId5"/>
-    <sheet name="General Manager" sheetId="6" r:id="rId6"/>
-    <sheet name="Branch Manager" sheetId="7" r:id="rId7"/>
+    <sheet name="Names | Group 1" sheetId="8" r:id="rId1"/>
+    <sheet name="Database" sheetId="2" r:id="rId2"/>
+    <sheet name="Dispatcher" sheetId="1" r:id="rId3"/>
+    <sheet name="User" sheetId="3" r:id="rId4"/>
+    <sheet name="Specialist" sheetId="4" r:id="rId5"/>
+    <sheet name="Lab Worker" sheetId="5" r:id="rId6"/>
+    <sheet name="General Manager" sheetId="6" r:id="rId7"/>
+    <sheet name="Branch Manager" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="573">
   <si>
     <t xml:space="preserve">Use Case: </t>
   </si>
@@ -996,7 +992,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1006,7 +1002,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1017,7 +1013,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1027,7 +1023,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1036,7 +1032,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1060,7 +1056,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1070,7 +1066,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1090,7 +1086,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1100,7 +1096,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1118,7 +1114,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1128,7 +1124,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1147,7 +1143,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1158,7 +1154,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1169,7 +1165,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1180,7 +1176,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1191,7 +1187,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1202,7 +1198,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1213,7 +1209,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1223,7 +1219,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1239,7 +1235,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1250,7 +1246,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1261,7 +1257,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1272,7 +1268,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1283,7 +1279,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1294,7 +1290,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1305,7 +1301,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1315,7 +1311,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1336,7 +1332,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1347,7 +1343,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1358,7 +1354,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1369,7 +1365,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1380,7 +1376,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1390,7 +1386,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1406,7 +1402,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1416,7 +1412,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1432,7 +1428,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1442,7 +1438,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1458,7 +1454,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1468,7 +1464,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1480,7 +1476,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1490,7 +1486,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1506,7 +1502,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1526,7 +1522,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1536,7 +1532,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1559,7 +1555,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1569,7 +1565,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1588,7 +1584,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1598,7 +1594,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1630,7 +1626,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1641,7 +1637,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1652,7 +1648,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1663,7 +1659,7 @@
         <b/>
         <sz val="11"/>
         <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1674,7 +1670,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1685,7 +1681,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1696,7 +1692,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1706,7 +1702,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1723,7 +1719,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1734,7 +1730,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1745,7 +1741,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1756,7 +1752,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1767,7 +1763,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1777,7 +1773,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1794,7 +1790,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1805,7 +1801,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1816,7 +1812,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1827,7 +1823,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1838,7 +1834,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1848,7 +1844,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1865,7 +1861,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1876,7 +1872,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1887,7 +1883,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1898,7 +1894,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1908,7 +1904,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1918,7 +1914,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1927,7 +1923,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1944,7 +1940,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1955,7 +1951,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1966,7 +1962,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1977,7 +1973,7 @@
         <b/>
         <sz val="11"/>
         <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1988,7 +1984,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1998,7 +1994,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2008,7 +2004,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2017,7 +2013,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2034,7 +2030,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2045,7 +2041,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2056,7 +2052,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2067,7 +2063,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2078,7 +2074,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2088,7 +2084,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2105,7 +2101,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2116,7 +2112,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2127,7 +2123,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2138,7 +2134,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2149,7 +2145,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2159,7 +2155,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2203,7 +2199,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2214,7 +2210,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2225,7 +2221,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2236,7 +2232,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2246,7 +2242,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2256,7 +2252,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2265,7 +2261,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2281,7 +2277,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2291,7 +2287,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2308,7 +2304,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2318,7 +2314,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2335,7 +2331,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2345,7 +2341,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2362,7 +2358,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2372,7 +2368,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2406,28 +2402,7 @@
     <t>SuccessfulCreate</t>
   </si>
   <si>
-    <t>1. Open "Create  lab reference" window.
-2. Insert medical field: Cardioligy
-3. Insert examination type: Electrocardiography
-4. Click ok button.</t>
-  </si>
-  <si>
-    <t>System checks that all required fields are filled. System checks for aviable medical field and examination type. System notify for new lab refernce, and show a print option.</t>
-  </si>
-  <si>
     <t>new lab refernce created</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open "Create  lab reference" window.
-2. Insert medical field: Cardioligy
-3. Insert examination type: 
-4. Click ok button.
-</t>
-  </si>
-  <si>
-    <t>System checks that all required fields are filled.
- System reports about "examination type".
-System asks the specialist to insert examination type.</t>
   </si>
   <si>
     <t>Acceptance Testing for Use Case: View Client's History</t>
@@ -2480,9 +2455,6 @@
     <t>Insert Reference Details</t>
   </si>
   <si>
-    <t>Reference Found</t>
-  </si>
-  <si>
     <t>Open "Insert Reference Details" Window
 Type Patient ID: 302632195
 Type Specialist ID: 1004
@@ -2490,18 +2462,7 @@
 Click OK button</t>
   </si>
   <si>
-    <t xml:space="preserve">System checks that all required 
-fields are filled. System checks for 
-Reference with Patient ID , Specialist ID , Date that the user inserted.
-Reference Found, System Open
-"Show details Window". 
- </t>
-  </si>
-  <si>
     <t>Reference in DB</t>
-  </si>
-  <si>
-    <t>Reference Not In DB</t>
   </si>
   <si>
     <t>Open "Insert Reference Details" Window
@@ -2522,9 +2483,6 @@
     <t>Reference not in DB</t>
   </si>
   <si>
-    <t>Missing fields</t>
-  </si>
-  <si>
     <t>Open "Insert Reference Details" Window
 Type Patient ID: 302632195
 Type Specialist ID: 8888
@@ -2550,9 +2508,6 @@
     <t>View Reference Details</t>
   </si>
   <si>
-    <t>Login,Insert Reference Details</t>
-  </si>
-  <si>
     <t>Add Examination Result</t>
   </si>
   <si>
@@ -2574,39 +2529,6 @@
   </si>
   <si>
     <t>Add Examination Results</t>
-  </si>
-  <si>
-    <t>Login,Insert Reference Details,
-View Reference Details</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Successfully Examination Added </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>With</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Picture
- Attached</t>
-    </r>
   </si>
   <si>
     <t>Open "Add Examination Results" Window
@@ -2625,35 +2547,6 @@
     <t>Add Examination Result With Picture</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Successfully Examination Added </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Without</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Picture
- Attached</t>
-    </r>
-  </si>
-  <si>
     <t>Open "Add Examination Results" Window
 Type Details: Upper Respiratory 
 Tract Infection , he has it
@@ -2665,9 +2558,6 @@
 System Report "Examination Added with the code 90002"</t>
   </si>
   <si>
-    <t>Missing Fields</t>
-  </si>
-  <si>
     <t>Open "Add Examination Results" Window
 Type Details: 
 Click OK button</t>
@@ -2686,10 +2576,6 @@
   </si>
   <si>
     <t>Add Picture</t>
-  </si>
-  <si>
-    <t>Login,Insert Reference Details,
-View Reference Details,  Add Examination Results</t>
   </si>
   <si>
     <t>Successfully Add Picture</t>
@@ -3038,16 +2924,455 @@
   <si>
     <t>CancelNview</t>
   </si>
+  <si>
+    <t>Yakir Karandian</t>
+  </si>
+  <si>
+    <t>Assaf Tzarfati</t>
+  </si>
+  <si>
+    <t>shayscal90@gmail.com</t>
+  </si>
+  <si>
+    <t>yakir1114@gmail.com</t>
+  </si>
+  <si>
+    <t>rizraz2001@gmail.com</t>
+  </si>
+  <si>
+    <t>asaff19899@gmail.com</t>
+  </si>
+  <si>
+    <t>Group Number 1 / 4.4.16</t>
+  </si>
+  <si>
+    <t>Acceptance Testing for Use Case: Record Appointment</t>
+  </si>
+  <si>
+    <t>Record Appointment</t>
+  </si>
+  <si>
+    <t>RecordAppointment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open "Record Appointment" window.
+2. type: complainant  for Headache.
+3. Click save button.
+                                           </t>
+  </si>
+  <si>
+    <t>successfully saved in system</t>
+  </si>
+  <si>
+    <t>EmptyTextBox</t>
+  </si>
+  <si>
+    <t>1. Open "Record Appointment" window.
+2. type:
+3. Click save button.</t>
+  </si>
+  <si>
+    <t>System check the record filed isn't empty. System display error, cannot leave textbox empty. System return to Record Appointment windows.</t>
+  </si>
+  <si>
+    <t>in case the user clicks save without filling the textbox.</t>
+  </si>
+  <si>
+    <t>1. Open "Record Appointment" window.</t>
+  </si>
+  <si>
+    <t>Acceptance Testing for Use Case: View examination results</t>
+  </si>
+  <si>
+    <t>View examination results</t>
+  </si>
+  <si>
+    <t>ExaminationResults</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open "View examination results" window.
+2. Choose: 3001 
+3. Click ok button.
+                                           </t>
+  </si>
+  <si>
+    <t>System checks available examination results for this client. System check if the choosen reference has result. System display examination results.</t>
+  </si>
+  <si>
+    <t>display examination results</t>
+  </si>
+  <si>
+    <t>NotSelectedReference</t>
+  </si>
+  <si>
+    <t>1. Open "View examination results" window.
+2. Choose: 
+3. Click ok button.</t>
+  </si>
+  <si>
+    <t>system check for valid choose. 
+Validation failed. System displays error message "must choose reference before continue". Return to View examination results screen.</t>
+  </si>
+  <si>
+    <t>in case the user clicks ok without choosing a reference</t>
+  </si>
+  <si>
+    <t>1. Open "View examination results" window.</t>
+  </si>
+  <si>
+    <t>ResultNotReady</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open "View examination results" window.
+2. Choose: 3004 
+3. Click ok button.
+                                           </t>
+  </si>
+  <si>
+    <t>System checks available examination results for this client. System displays error message "Lab worker didn't provide the results yet". Return to View examination results screen.</t>
+  </si>
+  <si>
+    <t>Lab worker didn't provide the results yet.</t>
+  </si>
+  <si>
+    <t>EmptyLabExaminations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open "View examination results" window.
+2. Click ok button.
+                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">system check for valid result. 
+Validation failed. System displays error message " there are no lab examinations". </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> there are no lab examinations.</t>
+  </si>
+  <si>
+    <t>Acceptance Testing for Use Case: End medical treatment</t>
+  </si>
+  <si>
+    <t>End medical treatment</t>
+  </si>
+  <si>
+    <t>EndProcess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open "End medical treatment" window.
+2. type price: 2000$ 
+3. Click enter button.
+4. Click ok button.
+                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">System ask for the cost of the treatment. System display the record of the appointment and the cost. System 2. SYSTEM sends a report to the doctor who create the reference,  a bill to the client's clinic, save report at client's medical file.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">close treatment </t>
+  </si>
+  <si>
+    <t>1. Open "End medical treatment" window.
+2. type price: 
+3. Click enter button.</t>
+  </si>
+  <si>
+    <t>System ask for the cost of the treatment.
+system check for valid choose. 
+Validation failed. System displays error message "must insert price before continue". Return to End medical treatment screen.</t>
+  </si>
+  <si>
+    <t>in case the user clicks enter without insert a price</t>
+  </si>
+  <si>
+    <t>1. Open "End medical treatment" window.</t>
+  </si>
+  <si>
+    <t>System ask for the cost of the treatment.
+System checks if 3 min passed,
+System throws out a warning "Timed Out". System log out.</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open "End medical treatment" window.
+2. type price: 300$ 
+3. Click enter button.
+4. Click cancel button.
+                                           </t>
+  </si>
+  <si>
+    <t>System ask for the cost of the treatment.
+System display the record of the appointment and the cost.
+System cancel the process and return to
+End medical treatment screen and display " process canceled".</t>
+  </si>
+  <si>
+    <t>cancel Process</t>
+  </si>
+  <si>
+    <t>ReferenceFound</t>
+  </si>
+  <si>
+    <t>ReferenceNotInDB</t>
+  </si>
+  <si>
+    <t>AddExaminationResult</t>
+  </si>
+  <si>
+    <t>SuccessPictureAttached</t>
+  </si>
+  <si>
+    <t>SuccessPictureNotAttached</t>
+  </si>
+  <si>
+    <t>MissingExaminationFields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System checks that all required fields are filled. System checks for Reference with Patient ID , Specialist ID , Date that the user inserted.
+Reference Found, System Open "Show details Window". 
+ </t>
+  </si>
+  <si>
+    <t>MissingRefDate</t>
+  </si>
+  <si>
+    <t>MissingRefID</t>
+  </si>
+  <si>
+    <t>MissingRefSpecialist</t>
+  </si>
+  <si>
+    <t>MissingIDAndDate</t>
+  </si>
+  <si>
+    <t>MissingIDAndSpecialist</t>
+  </si>
+  <si>
+    <t>MissingAllFields</t>
+  </si>
+  <si>
+    <t>MissingDateAndSpecialist</t>
+  </si>
+  <si>
+    <t>1. Open "Create  lab reference" window.
+2. Insert examination code: 2003
+3. Urgency: none
+4. comment: after period.
+5. Click ok button.</t>
+  </si>
+  <si>
+    <t>System checks that all required fields are filled. 
+System check for valid examination code.
+System display "created successfully".</t>
+  </si>
+  <si>
+    <t>1. Open "Create  lab reference" window.
+2. Insert examination code: 2003
+3. Urgency: none
+4. comment:
+5. Click ok button.</t>
+  </si>
+  <si>
+    <t>1. Open "Create  lab reference" window.
+2. Insert examination code: 2003
+3. Urgency: 
+4. comment: after period.
+5. Click ok button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open "Create  lab reference" window.
+2. Insert examination code: 
+3. Urgency: none
+4. comment: after period.
+5. Click ok button.
+</t>
+  </si>
+  <si>
+    <t>System checks that all required fields are filled. System reports about "Missing examination code".
+System asks the Specialist to insert examination code.</t>
+  </si>
+  <si>
+    <t>invalidExaminationCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open "Create  lab reference" window.
+2. Insert examination code: 12
+3. Urgency: none
+4. comment: after period.
+5. Click ok button.
+</t>
+  </si>
+  <si>
+    <t>System checks that all required fields are filled. System reports about "invalid examination code".
+System asks the Specialist to insert valid examination code.</t>
+  </si>
+  <si>
+    <t>Invalid examination code</t>
+  </si>
+  <si>
+    <t>System check the record filed isn't empty. System save text and  appointment details System display "Saved successfully".</t>
+  </si>
+  <si>
+    <t>Acceptance Testing for Use Case: Transfer details</t>
+  </si>
+  <si>
+    <t>Transfer details</t>
+  </si>
+  <si>
+    <t>TransferDetails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open "Transfer details" window.
+2. choose: 1
+3. Click ok button.
+                                           </t>
+  </si>
+  <si>
+    <t>System ask to choose option.
+ system check for valid choose.
+System transfer the whole file and display
+"transfer Succeeded".</t>
+  </si>
+  <si>
+    <t>transfer Succeeded.</t>
+  </si>
+  <si>
+    <t>WrongChoice</t>
+  </si>
+  <si>
+    <t>1. Open "Transfer details" window.
+2. choose: 4
+3. Click ok button.</t>
+  </si>
+  <si>
+    <t>System ask to choose option.
+system check for valid choose. 
+Validation failed. System displays error message "must number between 1-2 before continue". Return to Transfer details screen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in case the user clicks wrong choice </t>
+  </si>
+  <si>
+    <t>Acceptance Testing for Use Case: Report missing appointment</t>
+  </si>
+  <si>
+    <t>Report missing appointment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReportMissing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open "Report missing appointment" window.
+2. choose: Yes
+3. Click ok button.
+                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">System ask to choose option.
+ System check for valid choose.
+System report on missing appointment.
+</t>
+  </si>
+  <si>
+    <t>client didn't came</t>
+  </si>
+  <si>
+    <t>ReportByMistake</t>
+  </si>
+  <si>
+    <t>1. Open "Report missing appointment" window.
+2. choose: No
+3. Click ok button.</t>
+  </si>
+  <si>
+    <t>System ask to choose option.
+System check for valid choose.
+System cancel report on missing appointment.</t>
+  </si>
+  <si>
+    <t>in case the user clicks wrong option</t>
+  </si>
+  <si>
+    <t>Acceptance Testing for Use Case: Transfer specific details</t>
+  </si>
+  <si>
+    <t>Transfer specific details</t>
+  </si>
+  <si>
+    <t>FileTransfer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                               </t>
+  </si>
+  <si>
+    <t>System display transfer process.
+System notify "transfer compleat".</t>
+  </si>
+  <si>
+    <t>transfer Successed</t>
+  </si>
+  <si>
+    <t>TransferError</t>
+  </si>
+  <si>
+    <t>ystem display transfer process.
+System notify "transfer error".</t>
+  </si>
+  <si>
+    <t>transfer failed</t>
+  </si>
+  <si>
+    <t>Acceptance Testing for Use Case: Transfer whole medical file</t>
+  </si>
+  <si>
+    <t>Transfer whole medical file</t>
+  </si>
+  <si>
+    <t>Data Table:  Examination type</t>
+  </si>
+  <si>
+    <t>Examination code</t>
+  </si>
+  <si>
+    <t>Examination name</t>
+  </si>
+  <si>
+    <t>Electrocardiography</t>
+  </si>
+  <si>
+    <t>physiotherapy</t>
+  </si>
+  <si>
+    <t>Papilloma</t>
+  </si>
+  <si>
+    <t>sinusitis</t>
+  </si>
+  <si>
+    <t>Hearing test</t>
+  </si>
+  <si>
+    <t>orthodontics</t>
+  </si>
+  <si>
+    <t>psoriasis</t>
+  </si>
+  <si>
+    <t>Tova</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3055,7 +3380,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3064,7 +3389,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3072,7 +3397,7 @@
       <b/>
       <u/>
       <sz val="14"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3080,20 +3405,20 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3101,7 +3426,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3110,7 +3435,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3118,7 +3443,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF002060"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3126,7 +3451,7 @@
       <b/>
       <sz val="11"/>
       <color theme="9" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3134,7 +3459,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3142,7 +3467,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3151,14 +3476,7 @@
       <u/>
       <sz val="11"/>
       <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3166,12 +3484,31 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFF00"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3196,8 +3533,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -3509,12 +3858,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3568,9 +3930,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3780,61 +4139,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3860,10 +4164,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3880,12 +4180,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3915,6 +4236,95 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3963,7 +4373,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4038,6 +4448,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4073,6 +4500,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4225,59 +4669,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I104"/>
+  <dimension ref="A2:C6"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" s="114" customFormat="1" ht="22.2" x14ac:dyDescent="0.7">
+      <c r="A2" s="115" t="s">
+        <v>461</v>
+      </c>
+      <c r="B2" s="116"/>
+      <c r="C2" s="115"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="14">
+        <v>302632195</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="B4" s="14">
+        <v>312143969</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="14">
+        <v>305003659</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="B6" s="14">
+        <v>200940997</v>
+      </c>
+      <c r="C6" s="113" t="s">
+        <v>460</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I116"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="33.47265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.47265625" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.47265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="I3" s="77" t="s">
+      <c r="I3" s="76" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="16" t="s">
         <v>113</v>
       </c>
@@ -4287,7 +4809,7 @@
       <c r="C4" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="52" t="s">
         <v>130</v>
       </c>
       <c r="E4" s="18" t="s">
@@ -4296,7 +4818,7 @@
       <c r="F4" s="18">
         <v>1001</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="163" t="s">
         <v>131</v>
       </c>
       <c r="H4" s="18">
@@ -4306,7 +4828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>115</v>
       </c>
@@ -4316,7 +4838,7 @@
       <c r="C5" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="54" t="s">
         <v>138</v>
       </c>
       <c r="E5" s="14" t="s">
@@ -4325,7 +4847,7 @@
       <c r="F5" s="14">
         <v>1002</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="164" t="s">
         <v>132</v>
       </c>
       <c r="H5" s="14">
@@ -4335,7 +4857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>117</v>
       </c>
@@ -4345,7 +4867,7 @@
       <c r="C6" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="54" t="s">
         <v>140</v>
       </c>
       <c r="E6" s="14" t="s">
@@ -4354,7 +4876,7 @@
       <c r="F6" s="14">
         <v>1003</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="164" t="s">
         <v>133</v>
       </c>
       <c r="H6" s="14">
@@ -4364,7 +4886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>118</v>
       </c>
@@ -4374,7 +4896,7 @@
       <c r="C7" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="54" t="s">
         <v>142</v>
       </c>
       <c r="E7" s="14" t="s">
@@ -4383,7 +4905,7 @@
       <c r="F7" s="14">
         <v>1004</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="164" t="s">
         <v>135</v>
       </c>
       <c r="H7" s="14">
@@ -4393,7 +4915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>119</v>
       </c>
@@ -4403,7 +4925,7 @@
       <c r="C8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="53" t="s">
         <v>144</v>
       </c>
       <c r="E8" s="14" t="s">
@@ -4412,7 +4934,7 @@
       <c r="F8" s="14">
         <v>1005</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="164" t="s">
         <v>136</v>
       </c>
       <c r="H8" s="14">
@@ -4422,7 +4944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>121</v>
       </c>
@@ -4432,7 +4954,7 @@
       <c r="C9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="53" t="s">
         <v>143</v>
       </c>
       <c r="E9" s="14" t="s">
@@ -4441,7 +4963,7 @@
       <c r="F9" s="14">
         <v>1006</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="164" t="s">
         <v>137</v>
       </c>
       <c r="H9" s="14">
@@ -4451,7 +4973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>125</v>
       </c>
@@ -4461,7 +4983,7 @@
       <c r="C10" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="53" t="s">
         <v>147</v>
       </c>
       <c r="E10" s="14" t="s">
@@ -4470,7 +4992,7 @@
       <c r="F10" s="14">
         <v>1007</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="164" t="s">
         <v>134</v>
       </c>
       <c r="H10" s="14">
@@ -4480,7 +5002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>164</v>
       </c>
@@ -4490,7 +5012,7 @@
       <c r="C11" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="53" t="s">
         <v>151</v>
       </c>
       <c r="E11" s="14" t="s">
@@ -4499,7 +5021,7 @@
       <c r="F11" s="14">
         <v>1008</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="164" t="s">
         <v>159</v>
       </c>
       <c r="H11" s="14">
@@ -4509,7 +5031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>166</v>
       </c>
@@ -4519,7 +5041,7 @@
       <c r="C12" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="53" t="s">
         <v>153</v>
       </c>
       <c r="E12" s="14" t="s">
@@ -4528,7 +5050,7 @@
       <c r="F12" s="14">
         <v>1009</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="164" t="s">
         <v>160</v>
       </c>
       <c r="H12" s="14">
@@ -4538,7 +5060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>167</v>
       </c>
@@ -4548,7 +5070,7 @@
       <c r="C13" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="53" t="s">
         <v>154</v>
       </c>
       <c r="E13" s="14" t="s">
@@ -4557,7 +5079,7 @@
       <c r="F13" s="14">
         <v>1010</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="164" t="s">
         <v>161</v>
       </c>
       <c r="H13" s="14">
@@ -4567,7 +5089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>169</v>
       </c>
@@ -4577,7 +5099,7 @@
       <c r="C14" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="53" t="s">
         <v>156</v>
       </c>
       <c r="E14" s="14" t="s">
@@ -4586,7 +5108,7 @@
       <c r="F14" s="14">
         <v>1011</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="164" t="s">
         <v>162</v>
       </c>
       <c r="H14" s="14">
@@ -4596,7 +5118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>171</v>
       </c>
@@ -4606,7 +5128,7 @@
       <c r="C15" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="53" t="s">
         <v>157</v>
       </c>
       <c r="E15" s="14" t="s">
@@ -4615,7 +5137,7 @@
       <c r="F15" s="14">
         <v>1012</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="164" t="s">
         <v>163</v>
       </c>
       <c r="H15" s="14">
@@ -4625,26 +5147,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+    <row r="19" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="16">
         <v>302632195</v>
       </c>
@@ -4654,11 +5176,11 @@
       <c r="C20" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="163" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>200940997</v>
       </c>
@@ -4668,11 +5190,11 @@
       <c r="C21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="164" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>312143969</v>
       </c>
@@ -4682,11 +5204,11 @@
       <c r="C22" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="164" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>305003659</v>
       </c>
@@ -4696,27 +5218,27 @@
       <c r="C23" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="164" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+    <row r="26" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="29" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="14">
         <v>1002</v>
       </c>
@@ -4727,7 +5249,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="14">
         <v>1004</v>
       </c>
@@ -4738,7 +5260,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="14">
         <v>1003</v>
       </c>
@@ -4749,7 +5271,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="18">
         <v>1001</v>
       </c>
@@ -4760,156 +5282,156 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="37"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="39"/>
-    </row>
-    <row r="32" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" s="36"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="38"/>
+    </row>
+    <row r="32" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
+    <row r="33" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="44" t="s">
         <v>237</v>
       </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="41"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="43"/>
+      <c r="C33" s="40"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="42"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="37"/>
+      <c r="C34" s="41"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="42"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="37"/>
+      <c r="C35" s="41"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="42"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B36" s="37"/>
+      <c r="C36" s="41"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="42"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B37" s="37"/>
+      <c r="C37" s="41"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="42"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B38" s="37"/>
+      <c r="C38" s="41"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="42"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B39" s="37"/>
+      <c r="C39" s="41"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="42"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B40" s="37"/>
+      <c r="C40" s="41"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="42"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="39"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="42"/>
-    </row>
-    <row r="43" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="37"/>
+      <c r="C41" s="41"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="38"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="41"/>
+    </row>
+    <row r="43" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="43" t="s">
+    <row r="44" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="41"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C44" s="40"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="16">
         <v>11</v>
       </c>
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="42"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C45" s="41"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="2">
         <v>22</v>
       </c>
-      <c r="B46" s="49" t="s">
+      <c r="B46" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="42"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C46" s="41"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="3">
         <v>33</v>
       </c>
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="42"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C47" s="41"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="3">
         <v>44</v>
       </c>
-      <c r="B48" s="50" t="s">
+      <c r="B48" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="42"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="37"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="39"/>
-    </row>
-    <row r="51" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="41"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49" s="36"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="38"/>
+    </row>
+    <row r="51" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A51" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="28" t="s">
+    <row r="52" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="29" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="16">
         <v>302632195</v>
       </c>
@@ -4920,7 +5442,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="16">
         <v>302632195</v>
       </c>
@@ -4931,7 +5453,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="16">
         <v>302632195</v>
       </c>
@@ -4942,7 +5464,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="2">
         <v>200940997</v>
       </c>
@@ -4953,7 +5475,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="2">
         <v>200940997</v>
       </c>
@@ -4964,7 +5486,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="3">
         <v>305003659</v>
       </c>
@@ -4975,7 +5497,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="3">
         <v>312143969</v>
       </c>
@@ -4986,7 +5508,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="3">
         <v>305003659</v>
       </c>
@@ -4997,7 +5519,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="3">
         <v>312143969</v>
       </c>
@@ -5008,26 +5530,26 @@
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A63" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="28" t="s">
+    <row r="64" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B64" s="45" t="s">
+      <c r="B64" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="C64" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="D64" s="30" t="s">
+      <c r="D64" s="29" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="18">
         <v>1001</v>
       </c>
@@ -5037,11 +5559,11 @@
       <c r="C65" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="D65" s="56">
+      <c r="D65" s="55">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="18">
         <v>1001</v>
       </c>
@@ -5051,11 +5573,11 @@
       <c r="C66" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="D66" s="57">
+      <c r="D66" s="56">
         <v>0.4375</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="14">
         <v>1002</v>
       </c>
@@ -5065,11 +5587,11 @@
       <c r="C67" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="D67" s="57">
+      <c r="D67" s="56">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="18">
         <v>1001</v>
       </c>
@@ -5079,11 +5601,11 @@
       <c r="C68" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="D68" s="57">
+      <c r="D68" s="56">
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="14">
         <v>1002</v>
       </c>
@@ -5093,11 +5615,11 @@
       <c r="C69" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="D69" s="57">
+      <c r="D69" s="56">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="14">
         <v>1004</v>
       </c>
@@ -5107,11 +5629,11 @@
       <c r="C70" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="D70" s="57">
+      <c r="D70" s="56">
         <v>0.5</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="14">
         <v>1002</v>
       </c>
@@ -5121,11 +5643,11 @@
       <c r="C71" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="D71" s="57">
+      <c r="D71" s="56">
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="14">
         <v>1004</v>
       </c>
@@ -5135,11 +5657,11 @@
       <c r="C72" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="D72" s="57">
+      <c r="D72" s="56">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="18">
         <v>1001</v>
       </c>
@@ -5149,11 +5671,11 @@
       <c r="C73" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="D73" s="56">
+      <c r="D73" s="55">
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="18">
         <v>1001</v>
       </c>
@@ -5163,11 +5685,11 @@
       <c r="C74" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="D74" s="57">
+      <c r="D74" s="56">
         <v>0.4375</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="14">
         <v>1002</v>
       </c>
@@ -5177,11 +5699,11 @@
       <c r="C75" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="D75" s="57">
+      <c r="D75" s="56">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="18">
         <v>1001</v>
       </c>
@@ -5191,11 +5713,11 @@
       <c r="C76" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="D76" s="57">
+      <c r="D76" s="56">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="14">
         <v>1002</v>
       </c>
@@ -5205,11 +5727,11 @@
       <c r="C77" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="D77" s="57">
+      <c r="D77" s="56">
         <v>0.4375</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="14">
         <v>1004</v>
       </c>
@@ -5219,11 +5741,11 @@
       <c r="C78" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="D78" s="57">
+      <c r="D78" s="56">
         <v>0.4375</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="14">
         <v>1002</v>
       </c>
@@ -5233,11 +5755,11 @@
       <c r="C79" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="D79" s="57">
+      <c r="D79" s="56">
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="14">
         <v>1004</v>
       </c>
@@ -5247,30 +5769,30 @@
       <c r="C80" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="D80" s="57">
+      <c r="D80" s="56">
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A82" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="28" t="s">
+    <row r="83" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="B83" s="45" t="s">
+      <c r="B83" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="C83" s="30" t="s">
+      <c r="C83" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="D83" s="30" t="s">
+      <c r="D83" s="29" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" s="16">
         <v>302632195</v>
       </c>
@@ -5280,11 +5802,11 @@
       <c r="C84" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="D84" s="56">
+      <c r="D84" s="55">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" s="16">
         <v>302632195</v>
       </c>
@@ -5294,11 +5816,11 @@
       <c r="C85" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="D85" s="57">
+      <c r="D85" s="56">
         <v>0.375</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" s="3">
         <v>305003659</v>
       </c>
@@ -5308,11 +5830,11 @@
       <c r="C86" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="D86" s="57">
+      <c r="D86" s="56">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" s="3">
         <v>305003659</v>
       </c>
@@ -5322,11 +5844,11 @@
       <c r="C87" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="D87" s="57">
+      <c r="D87" s="56">
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" s="3">
         <v>305003659</v>
       </c>
@@ -5336,11 +5858,11 @@
       <c r="C88" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D88" s="57">
+      <c r="D88" s="56">
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" s="3">
         <v>312143969</v>
       </c>
@@ -5350,11 +5872,11 @@
       <c r="C89" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="D89" s="57">
+      <c r="D89" s="56">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" s="3">
         <v>312143969</v>
       </c>
@@ -5364,36 +5886,36 @@
       <c r="C90" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D90" s="57">
+      <c r="D90" s="56">
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="64" t="s">
+    <row r="93" spans="1:6" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A93" s="63" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="65" t="s">
+    <row r="94" spans="1:6" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A94" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="B94" s="65" t="s">
+      <c r="B94" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C94" s="66" t="s">
+      <c r="C94" s="65" t="s">
         <v>240</v>
       </c>
-      <c r="D94" s="66" t="s">
+      <c r="D94" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="E94" s="66" t="s">
+      <c r="E94" s="65" t="s">
         <v>241</v>
       </c>
-      <c r="F94" s="66" t="s">
+      <c r="F94" s="65" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" s="14">
         <v>302632195</v>
       </c>
@@ -5413,7 +5935,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" s="14">
         <v>305003659</v>
       </c>
@@ -5429,11 +5951,11 @@
       <c r="E96" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="F96" s="67" t="s">
+      <c r="F96" s="66" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97" s="14">
         <v>200940997</v>
       </c>
@@ -5449,65 +5971,142 @@
       <c r="E97" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="F97" s="67" t="s">
+      <c r="F97" s="66" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="68"/>
-      <c r="B98" s="68"/>
-      <c r="C98" s="68"/>
-      <c r="D98" s="68"/>
-      <c r="E98" s="68"/>
-      <c r="F98" s="68"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="64" t="s">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A98" s="67"/>
+      <c r="B98" s="67"/>
+      <c r="C98" s="67"/>
+      <c r="D98" s="67"/>
+      <c r="E98" s="67"/>
+      <c r="F98" s="67"/>
+    </row>
+    <row r="100" spans="1:6" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A100" s="63" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="66" t="s">
+    <row r="101" spans="1:6" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A101" s="65" t="s">
         <v>240</v>
       </c>
-      <c r="B101" s="66" t="s">
+      <c r="B101" s="65" t="s">
         <v>246</v>
       </c>
-      <c r="C101" s="66" t="s">
+      <c r="C101" s="65" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102" s="14">
         <v>90000</v>
       </c>
-      <c r="B102" s="67" t="s">
+      <c r="B102" s="66" t="s">
         <v>250</v>
       </c>
       <c r="C102" s="14" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103" s="14">
         <v>90001</v>
       </c>
-      <c r="B103" s="67" t="s">
+      <c r="B103" s="66" t="s">
         <v>251</v>
       </c>
       <c r="C103" s="14" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104" s="14">
         <v>90002</v>
       </c>
-      <c r="B104" s="67" t="s">
+      <c r="B104" s="66" t="s">
         <v>255</v>
       </c>
       <c r="C104" s="14" t="s">
         <v>249</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A107" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A108" s="44" t="s">
+        <v>563</v>
+      </c>
+      <c r="B108" s="44" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A109" s="50">
+        <v>2001</v>
+      </c>
+      <c r="B109" s="160" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A110" s="48">
+        <v>2002</v>
+      </c>
+      <c r="B110" s="161" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A111" s="48">
+        <v>2003</v>
+      </c>
+      <c r="B111" s="161" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A112" s="48">
+        <v>2004</v>
+      </c>
+      <c r="B112" s="161" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A113" s="48">
+        <v>2005</v>
+      </c>
+      <c r="B113" s="161" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A114" s="48">
+        <v>2006</v>
+      </c>
+      <c r="B114" s="161" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A115" s="48">
+        <v>2007</v>
+      </c>
+      <c r="B115" s="161" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A116" s="48">
+        <v>2008</v>
+      </c>
+      <c r="B116" s="162" t="s">
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -5534,7 +6133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D105"/>
   <sheetViews>
@@ -5542,73 +6141,73 @@
       <selection activeCell="B5" sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.33203125" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="137" t="s">
+    <row r="1" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="138"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="B1" s="123"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="23"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
+      <c r="B4" s="22"/>
+    </row>
+    <row r="5" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A8" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-    </row>
-    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+    </row>
+    <row r="9" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="33" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="83.1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -5622,7 +6221,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -5636,7 +6235,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
@@ -5650,7 +6249,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -5664,7 +6263,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="7" t="s">
         <v>46</v>
       </c>
@@ -5674,70 +6273,70 @@
       <c r="C14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="34" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="137" t="s">
+    <row r="16" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="17" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="138"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
+      <c r="B17" s="123"/>
+    </row>
+    <row r="18" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A18" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="24" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="27" t="s">
+    <row r="19" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A19" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="27" t="s">
+    <row r="20" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A20" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="23"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="27" t="s">
+      <c r="B20" s="22"/>
+    </row>
+    <row r="21" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A21" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="s">
+    <row r="23" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A23" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-    </row>
-    <row r="24" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+    </row>
+    <row r="24" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="33" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="4" t="s">
         <v>48</v>
       </c>
@@ -5751,7 +6350,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="4" t="s">
         <v>49</v>
       </c>
@@ -5765,8 +6364,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="58" t="s">
+    <row r="27" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="57" t="s">
         <v>279</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -5775,12 +6374,12 @@
       <c r="C27" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="D27" s="73" t="s">
+      <c r="D27" s="72" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="58" t="s">
+    <row r="28" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="57" t="s">
         <v>281</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -5789,11 +6388,11 @@
       <c r="C28" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="D28" s="73" t="s">
+      <c r="D28" s="72" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="7" t="s">
         <v>50</v>
       </c>
@@ -5807,11 +6406,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="35" t="s">
         <v>64</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -5821,11 +6420,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="35" t="s">
         <v>66</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -5835,11 +6434,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="35" t="s">
         <v>56</v>
       </c>
       <c r="C32" s="9" t="s">
@@ -5849,77 +6448,77 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="69"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="72"/>
-    </row>
-    <row r="34" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="69"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="72"/>
-    </row>
-    <row r="35" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="137" t="s">
+    <row r="33" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A33" s="68"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="71"/>
+    </row>
+    <row r="34" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="68"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="71"/>
+    </row>
+    <row r="35" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="138"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="26" t="s">
+      <c r="B35" s="123"/>
+    </row>
+    <row r="36" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A36" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="24" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="27" t="s">
+    <row r="37" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A37" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="27" t="s">
+    <row r="38" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A38" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="23"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="27" t="s">
+      <c r="B38" s="22"/>
+    </row>
+    <row r="39" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A39" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="21" t="s">
+    <row r="42" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A42" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-    </row>
-    <row r="43" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="31" t="s">
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+    </row>
+    <row r="43" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="33" t="s">
+      <c r="C43" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="34" t="s">
+      <c r="D43" s="33" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="4" t="s">
         <v>266</v>
       </c>
@@ -5933,7 +6532,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="91" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="83.1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A45" s="4" t="s">
         <v>267</v>
       </c>
@@ -5947,8 +6546,8 @@
         <v>327</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="58" t="s">
+    <row r="46" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A46" s="57" t="s">
         <v>328</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -5957,12 +6556,12 @@
       <c r="C46" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="D46" s="73" t="s">
+      <c r="D46" s="72" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="58" t="s">
+    <row r="47" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A47" s="57" t="s">
         <v>268</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -5971,11 +6570,11 @@
       <c r="C47" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="D47" s="73" t="s">
+      <c r="D47" s="72" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="7" t="s">
         <v>23</v>
       </c>
@@ -5989,95 +6588,95 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="69"/>
-      <c r="B49" s="70"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="72"/>
-    </row>
-    <row r="50" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="69"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="71"/>
-      <c r="D50" s="72"/>
-    </row>
-    <row r="51" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="137" t="s">
+    <row r="49" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A49" s="68"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="71"/>
+    </row>
+    <row r="50" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A50" s="68"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="71"/>
+    </row>
+    <row r="51" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A51" s="122" t="s">
         <v>259</v>
       </c>
-      <c r="B51" s="138"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="26" t="s">
+      <c r="B51" s="123"/>
+    </row>
+    <row r="52" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A52" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="24" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="27" t="s">
+    <row r="53" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A53" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="27" t="s">
+    <row r="54" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A54" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="23"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="27" t="s">
+      <c r="B54" s="22"/>
+    </row>
+    <row r="55" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A55" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B55" s="24" t="s">
+      <c r="B55" s="23" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="74"/>
-      <c r="B56" s="75"/>
-    </row>
-    <row r="58" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="21" t="s">
+    <row r="56" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A56" s="73"/>
+      <c r="B56" s="74"/>
+    </row>
+    <row r="58" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B58" s="38"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="40"/>
-    </row>
-    <row r="59" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="31" t="s">
+      <c r="B58" s="37"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="39"/>
+    </row>
+    <row r="59" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B59" s="31" t="s">
+      <c r="B59" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="48" t="s">
+      <c r="C59" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="34" t="s">
+      <c r="D59" s="33" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="91" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="83.1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A60" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C60" s="46" t="s">
+      <c r="C60" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="D60" s="47" t="s">
+      <c r="D60" s="46" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A61" s="4" t="s">
         <v>183</v>
       </c>
@@ -6087,11 +6686,11 @@
       <c r="C61" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="D61" s="35" t="s">
+      <c r="D61" s="34" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A62" s="4" t="s">
         <v>185</v>
       </c>
@@ -6105,11 +6704,11 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A63" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B63" s="36" t="s">
+      <c r="B63" s="35" t="s">
         <v>263</v>
       </c>
       <c r="C63" s="9" t="s">
@@ -6119,63 +6718,63 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="137" t="s">
+    <row r="65" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="66" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A66" s="122" t="s">
         <v>190</v>
       </c>
-      <c r="B66" s="138"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="26" t="s">
+      <c r="B66" s="123"/>
+    </row>
+    <row r="67" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A67" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="25" t="s">
+      <c r="B67" s="24" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="27" t="s">
+    <row r="68" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A68" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="22" t="s">
+      <c r="B68" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="27" t="s">
+    <row r="69" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A69" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B69" s="23"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="27" t="s">
+      <c r="B69" s="22"/>
+    </row>
+    <row r="70" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A70" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B70" s="24" t="s">
+      <c r="B70" s="23" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="21" t="s">
+    <row r="72" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="31" t="s">
+    <row r="73" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A73" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B73" s="31" t="s">
+      <c r="B73" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C73" s="48" t="s">
+      <c r="C73" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D73" s="34" t="s">
+      <c r="D73" s="33" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="4" t="s">
         <v>192</v>
       </c>
@@ -6185,25 +6784,25 @@
       <c r="C74" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D74" s="47" t="s">
+      <c r="D74" s="46" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="106" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="96.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A75" s="4" t="s">
         <v>193</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C75" s="46" t="s">
+      <c r="C75" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="D75" s="35" t="s">
+      <c r="D75" s="34" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A76" s="4" t="s">
         <v>200</v>
       </c>
@@ -6217,11 +6816,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A77" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B77" s="36" t="s">
+      <c r="B77" s="35" t="s">
         <v>232</v>
       </c>
       <c r="C77" s="9" t="s">
@@ -6231,189 +6830,189 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="137" t="s">
+    <row r="79" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="80" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A80" s="122" t="s">
         <v>196</v>
       </c>
-      <c r="B80" s="138"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="26" t="s">
+      <c r="B80" s="123"/>
+    </row>
+    <row r="81" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A81" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="25" t="s">
+      <c r="B81" s="24" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="27" t="s">
+    <row r="82" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A82" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B82" s="22" t="s">
+      <c r="B82" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="27" t="s">
+    <row r="83" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A83" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B83" s="23"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="27" t="s">
+      <c r="B83" s="22"/>
+    </row>
+    <row r="84" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A84" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B84" s="24" t="s">
+      <c r="B84" s="23" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="21" t="s">
+    <row r="86" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="31" t="s">
+    <row r="87" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A87" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B87" s="31" t="s">
+      <c r="B87" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C87" s="48" t="s">
+      <c r="C87" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D87" s="34" t="s">
+      <c r="D87" s="33" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A88" s="4" t="s">
         <v>210</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C88" s="46" t="s">
+      <c r="C88" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="D88" s="60" t="s">
+      <c r="D88" s="59" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="166" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="165.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A89" s="4" t="s">
         <v>212</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C89" s="59" t="s">
+      <c r="C89" s="58" t="s">
         <v>223</v>
       </c>
-      <c r="D89" s="59" t="s">
+      <c r="D89" s="58" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="58" t="s">
+    <row r="90" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A90" s="57" t="s">
         <v>214</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C90" s="59" t="s">
+      <c r="C90" s="58" t="s">
         <v>222</v>
       </c>
-      <c r="D90" s="61" t="s">
+      <c r="D90" s="60" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A91" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B91" s="36" t="s">
+      <c r="B91" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="C91" s="63" t="s">
+      <c r="C91" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="62" t="s">
+      <c r="D91" s="61" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="137" t="s">
+    <row r="93" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="94" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A94" s="122" t="s">
         <v>198</v>
       </c>
-      <c r="B94" s="138"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="26" t="s">
+      <c r="B94" s="123"/>
+    </row>
+    <row r="95" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A95" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B95" s="25" t="s">
+      <c r="B95" s="24" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="27" t="s">
+    <row r="96" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A96" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B96" s="22" t="s">
+      <c r="B96" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="27" t="s">
+    <row r="97" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A97" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B97" s="23"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="27" t="s">
+      <c r="B97" s="22"/>
+    </row>
+    <row r="98" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A98" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B98" s="24" t="s">
+      <c r="B98" s="23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="21" t="s">
+    <row r="100" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="31" t="s">
+    <row r="101" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A101" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B101" s="31" t="s">
+      <c r="B101" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C101" s="48" t="s">
+      <c r="C101" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D101" s="34" t="s">
+      <c r="D101" s="33" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A102" s="4" t="s">
         <v>217</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C102" s="46" t="s">
+      <c r="C102" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="D102" s="60" t="s">
+      <c r="D102" s="59" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="121" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="110.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A103" s="4" t="s">
         <v>229</v>
       </c>
@@ -6423,11 +7022,11 @@
       <c r="C103" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="D103" s="59" t="s">
+      <c r="D103" s="58" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="83.1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A104" s="4" t="s">
         <v>224</v>
       </c>
@@ -6437,21 +7036,21 @@
       <c r="C104" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="D104" s="61" t="s">
+      <c r="D104" s="60" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A105" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B105" s="36" t="s">
+      <c r="B105" s="35" t="s">
         <v>231</v>
       </c>
       <c r="C105" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D105" s="61" t="s">
+      <c r="D105" s="60" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6470,7 +7069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
@@ -6478,7 +7077,7 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
@@ -6486,233 +7085,233 @@
     <col min="4" max="4" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="137" t="s">
+    <row r="1" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="122" t="s">
         <v>315</v>
       </c>
-      <c r="B1" s="138"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="B1" s="123"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="78"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
+      <c r="B4" s="77"/>
+    </row>
+    <row r="5" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="79"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="76"/>
-    </row>
-    <row r="7" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="80" t="s">
+      <c r="B5" s="78"/>
+    </row>
+    <row r="6" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A6" s="75"/>
+    </row>
+    <row r="7" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="79" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="91" t="s">
+    <row r="8" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A8" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="92" t="s">
+      <c r="C8" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="93" t="s">
+      <c r="D8" s="92" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A9" s="81" t="s">
+    <row r="9" spans="1:4" ht="56.1" x14ac:dyDescent="0.45">
+      <c r="A9" s="80" t="s">
         <v>288</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="82" t="s">
         <v>317</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="82" t="s">
         <v>289</v>
       </c>
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="84" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A10" s="81" t="s">
+    <row r="10" spans="1:4" ht="83.7" x14ac:dyDescent="0.45">
+      <c r="A10" s="80" t="s">
         <v>291</v>
       </c>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="82" t="s">
         <v>318</v>
       </c>
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="82" t="s">
         <v>292</v>
       </c>
-      <c r="D10" s="84" t="s">
+      <c r="D10" s="83" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A11" s="81" t="s">
+    <row r="11" spans="1:4" ht="83.4" x14ac:dyDescent="0.45">
+      <c r="A11" s="80" t="s">
         <v>293</v>
       </c>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="82" t="s">
         <v>319</v>
       </c>
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="82" t="s">
         <v>294</v>
       </c>
-      <c r="D11" s="85" t="s">
+      <c r="D11" s="84" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A12" s="141" t="s">
+    <row r="12" spans="1:4" ht="83.4" x14ac:dyDescent="0.45">
+      <c r="A12" s="126" t="s">
         <v>296</v>
       </c>
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="82" t="s">
         <v>320</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="84" t="s">
         <v>333</v>
       </c>
-      <c r="D12" s="140" t="s">
+      <c r="D12" s="125" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A13" s="142"/>
-      <c r="B13" s="83" t="s">
+    <row r="13" spans="1:4" ht="83.4" x14ac:dyDescent="0.45">
+      <c r="A13" s="127"/>
+      <c r="B13" s="82" t="s">
         <v>297</v>
       </c>
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="82" t="s">
         <v>334</v>
       </c>
-      <c r="D13" s="140"/>
-    </row>
-    <row r="14" spans="1:4" ht="135" x14ac:dyDescent="0.2">
-      <c r="A14" s="142"/>
-      <c r="B14" s="85" t="s">
+      <c r="D13" s="125"/>
+    </row>
+    <row r="14" spans="1:4" ht="139.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="127"/>
+      <c r="B14" s="84" t="s">
         <v>298</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="82" t="s">
         <v>336</v>
       </c>
-      <c r="D14" s="140"/>
-    </row>
-    <row r="15" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A15" s="139" t="s">
+      <c r="D14" s="125"/>
+    </row>
+    <row r="15" spans="1:4" ht="83.4" x14ac:dyDescent="0.45">
+      <c r="A15" s="124" t="s">
         <v>337</v>
       </c>
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="82" t="s">
         <v>332</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="C15" s="84" t="s">
         <v>333</v>
       </c>
-      <c r="D15" s="140" t="s">
+      <c r="D15" s="125" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="105" x14ac:dyDescent="0.2">
-      <c r="A16" s="139"/>
-      <c r="B16" s="83" t="s">
+    <row r="16" spans="1:4" ht="97.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="124"/>
+      <c r="B16" s="82" t="s">
         <v>300</v>
       </c>
-      <c r="C16" s="83" t="s">
+      <c r="C16" s="82" t="s">
         <v>335</v>
       </c>
-      <c r="D16" s="140"/>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A17" s="139"/>
-      <c r="B17" s="83" t="s">
+      <c r="D16" s="125"/>
+    </row>
+    <row r="17" spans="1:4" ht="27.9" x14ac:dyDescent="0.45">
+      <c r="A17" s="124"/>
+      <c r="B17" s="82" t="s">
         <v>301</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="85" t="s">
         <v>302</v>
       </c>
-      <c r="D17" s="140"/>
-    </row>
-    <row r="18" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="139"/>
-      <c r="B18" s="83" t="s">
+      <c r="D17" s="125"/>
+    </row>
+    <row r="18" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="124"/>
+      <c r="B18" s="82" t="s">
         <v>303</v>
       </c>
-      <c r="C18" s="86" t="s">
+      <c r="C18" s="85" t="s">
         <v>304</v>
       </c>
-      <c r="D18" s="140"/>
-    </row>
-    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A19" s="82" t="s">
+      <c r="D18" s="125"/>
+    </row>
+    <row r="19" spans="1:4" ht="56.1" x14ac:dyDescent="0.45">
+      <c r="A19" s="81" t="s">
         <v>305</v>
       </c>
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="82" t="s">
         <v>321</v>
       </c>
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="82" t="s">
         <v>306</v>
       </c>
-      <c r="D19" s="83" t="s">
+      <c r="D19" s="82" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A20" s="81" t="s">
+    <row r="20" spans="1:4" ht="56.1" x14ac:dyDescent="0.45">
+      <c r="A20" s="80" t="s">
         <v>308</v>
       </c>
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="82" t="s">
         <v>322</v>
       </c>
-      <c r="C20" s="83" t="s">
+      <c r="C20" s="82" t="s">
         <v>309</v>
       </c>
-      <c r="D20" s="87"/>
-    </row>
-    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A21" s="81" t="s">
+      <c r="D20" s="86"/>
+    </row>
+    <row r="21" spans="1:4" ht="56.1" x14ac:dyDescent="0.45">
+      <c r="A21" s="80" t="s">
         <v>310</v>
       </c>
-      <c r="B21" s="83" t="s">
+      <c r="B21" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="C21" s="83" t="s">
+      <c r="C21" s="82" t="s">
         <v>309</v>
       </c>
-      <c r="D21" s="88" t="s">
+      <c r="D21" s="87" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A22" s="81" t="s">
+    <row r="22" spans="1:4" ht="55.2" x14ac:dyDescent="0.45">
+      <c r="A22" s="80" t="s">
         <v>312</v>
       </c>
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="89" t="s">
         <v>324</v>
       </c>
-      <c r="C22" s="89" t="s">
+      <c r="C22" s="88" t="s">
         <v>313</v>
       </c>
-      <c r="D22" s="88" t="s">
+      <c r="D22" s="87" t="s">
         <v>325</v>
       </c>
     </row>
@@ -6729,1216 +7328,2070 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A51" zoomScale="122" zoomScaleNormal="70" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.80859375" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.47265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="137" t="s">
+    <row r="1" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="138"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="B1" s="123"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="23"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
+      <c r="B4" s="22"/>
+    </row>
+    <row r="5" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A8" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-    </row>
-    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+    </row>
+    <row r="9" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="33" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="196" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="C10" s="95" t="s">
+      <c r="C10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="96" t="s">
+      <c r="D10" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="166" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="95" t="s">
+      <c r="B11" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="C11" s="95" t="s">
+      <c r="C11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="96" t="s">
+      <c r="D11" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="136" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="97" t="s">
+      <c r="D12" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="91" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="99" t="s">
+      <c r="C13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="97" t="s">
+      <c r="D13" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="121" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="99" t="s">
+      <c r="C14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="100" t="s">
+      <c r="D14" s="34" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="17" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="137" t="s">
         <v>341</v>
       </c>
       <c r="B17" s="138"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="102" t="s">
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+    </row>
+    <row r="18" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A18" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="103" t="s">
+      <c r="B18" s="141" t="s">
         <v>342</v>
       </c>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="104" t="s">
+      <c r="C18" s="139"/>
+      <c r="D18" s="139"/>
+    </row>
+    <row r="19" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A19" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="105" t="s">
+      <c r="B19" s="143" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="104" t="s">
+      <c r="C19" s="139"/>
+      <c r="D19" s="139"/>
+    </row>
+    <row r="20" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A20" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="106"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="104" t="s">
+      <c r="B20" s="143"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="139"/>
+    </row>
+    <row r="21" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A21" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="144" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="101"/>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-    </row>
-    <row r="23" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="s">
+      <c r="C21" s="139"/>
+      <c r="D21" s="139"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="139"/>
+      <c r="B22" s="139"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+    </row>
+    <row r="23" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A23" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="107"/>
-    </row>
-    <row r="24" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="146"/>
+    </row>
+    <row r="24" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="33" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="180" x14ac:dyDescent="0.2">
-      <c r="A25" s="108" t="s">
+    <row r="25" spans="1:4" ht="69" x14ac:dyDescent="0.45">
+      <c r="A25" s="147" t="s">
         <v>343</v>
       </c>
-      <c r="B25" s="109" t="s">
+      <c r="B25" s="148" t="s">
+        <v>520</v>
+      </c>
+      <c r="C25" s="148" t="s">
+        <v>521</v>
+      </c>
+      <c r="D25" s="149" t="s">
         <v>344</v>
       </c>
-      <c r="C25" s="109" t="s">
+    </row>
+    <row r="26" spans="1:4" ht="69" x14ac:dyDescent="0.45">
+      <c r="A26" s="147" t="s">
+        <v>343</v>
+      </c>
+      <c r="B26" s="148" t="s">
+        <v>522</v>
+      </c>
+      <c r="C26" s="148" t="s">
+        <v>521</v>
+      </c>
+      <c r="D26" s="149" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="69" x14ac:dyDescent="0.45">
+      <c r="A27" s="147" t="s">
+        <v>343</v>
+      </c>
+      <c r="B27" s="148" t="s">
+        <v>523</v>
+      </c>
+      <c r="C27" s="148" t="s">
+        <v>521</v>
+      </c>
+      <c r="D27" s="149" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="82.8" x14ac:dyDescent="0.45">
+      <c r="A28" s="150" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="151" t="s">
+        <v>524</v>
+      </c>
+      <c r="C28" s="151" t="s">
+        <v>525</v>
+      </c>
+      <c r="D28" s="152" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="83.1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="150" t="s">
+        <v>526</v>
+      </c>
+      <c r="B29" s="151" t="s">
+        <v>527</v>
+      </c>
+      <c r="C29" s="151" t="s">
+        <v>528</v>
+      </c>
+      <c r="D29" s="152" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="33" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="122" t="s">
         <v>345</v>
       </c>
-      <c r="D25" s="110" t="s">
+      <c r="B33" s="123"/>
+    </row>
+    <row r="34" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A34" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="24" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="180" x14ac:dyDescent="0.2">
-      <c r="A26" s="82" t="s">
+    <row r="35" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A35" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A36" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="22"/>
+    </row>
+    <row r="37" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A37" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A38" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+    </row>
+    <row r="39" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A41" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A42" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="45" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A45" s="122" t="s">
+        <v>462</v>
+      </c>
+      <c r="B45" s="123"/>
+    </row>
+    <row r="46" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A46" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A47" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A48" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="22"/>
+    </row>
+    <row r="49" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A49" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A50" s="73"/>
+      <c r="B50" s="74"/>
+    </row>
+    <row r="51" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A51" s="73"/>
+      <c r="B51" s="74"/>
+    </row>
+    <row r="52" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A52" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+    </row>
+    <row r="53" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A53" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A54" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A55" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="35" t="s">
+        <v>471</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="59" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="122" t="s">
+        <v>472</v>
+      </c>
+      <c r="B59" s="123"/>
+    </row>
+    <row r="60" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A60" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A61" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A62" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="22"/>
+    </row>
+    <row r="63" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A63" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A64" s="73"/>
+      <c r="B64" s="74"/>
+    </row>
+    <row r="65" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A65" s="73"/>
+      <c r="B65" s="74"/>
+    </row>
+    <row r="66" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A66" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+    </row>
+    <row r="67" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A67" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A68" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A69" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A70" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70" s="35" t="s">
+        <v>482</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A71" s="118" t="s">
+        <v>483</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="D71" s="34" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A72" s="119" t="s">
+        <v>487</v>
+      </c>
+      <c r="B72" s="120" t="s">
+        <v>488</v>
+      </c>
+      <c r="C72" s="120" t="s">
+        <v>489</v>
+      </c>
+      <c r="D72" s="121" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="75" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A75" s="122" t="s">
+        <v>491</v>
+      </c>
+      <c r="B75" s="123"/>
+    </row>
+    <row r="76" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A76" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="24" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A77" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A78" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" s="22"/>
+    </row>
+    <row r="79" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A79" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A80" s="73"/>
+      <c r="B80" s="74"/>
+    </row>
+    <row r="81" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A81" s="73"/>
+      <c r="B81" s="74"/>
+    </row>
+    <row r="82" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A82" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+    </row>
+    <row r="83" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A83" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="110.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A84" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="96.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A85" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="111" t="s">
-        <v>347</v>
-      </c>
-      <c r="C26" s="111" t="s">
-        <v>348</v>
-      </c>
-      <c r="D26" s="112" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="44"/>
-      <c r="B27" s="113"/>
-      <c r="C27" s="113"/>
-      <c r="D27" s="114"/>
-    </row>
-    <row r="28" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="137" t="s">
-        <v>349</v>
-      </c>
-      <c r="B29" s="138"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="26" t="s">
+      <c r="B85" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A86" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B86" s="35" t="s">
+        <v>500</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="110.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A87" s="118" t="s">
+        <v>502</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="D87" s="34" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="90" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A90" s="122" t="s">
+        <v>531</v>
+      </c>
+      <c r="B90" s="123"/>
+    </row>
+    <row r="91" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A91" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="25" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="27" t="s">
+      <c r="B91" s="24" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A92" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B92" s="21" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="27" t="s">
+    <row r="93" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A93" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="23"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="27" t="s">
+      <c r="B93" s="22"/>
+    </row>
+    <row r="94" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A94" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B94" s="23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="74"/>
-      <c r="B34" s="115"/>
-    </row>
-    <row r="35" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="21" t="s">
+    <row r="95" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A95" s="73"/>
+      <c r="B95" s="74"/>
+    </row>
+    <row r="96" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A96" s="73"/>
+      <c r="B96" s="74"/>
+    </row>
+    <row r="97" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A97" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-    </row>
-    <row r="36" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
+      <c r="B97" s="19"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+    </row>
+    <row r="98" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A98" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B98" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C98" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="34" t="s">
+      <c r="D98" s="33" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="121" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="151" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="91" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+    <row r="99" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A99" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="83.1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A100" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A101" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="36" t="s">
-        <v>359</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="11" t="s">
+      <c r="B101" s="35" t="s">
+        <v>500</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="D101" s="11" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="103" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="104" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A104" s="122" t="s">
+        <v>541</v>
+      </c>
+      <c r="B104" s="123"/>
+    </row>
+    <row r="105" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A105" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" s="24" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A106" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A107" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107" s="22"/>
+    </row>
+    <row r="108" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A108" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" s="159" customFormat="1" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A109" s="158"/>
+      <c r="B109" s="74"/>
+    </row>
+    <row r="111" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A111" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111" s="19"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="19"/>
+    </row>
+    <row r="112" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A112" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B112" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A113" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A114" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A115" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B115" s="35" t="s">
+        <v>500</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="118" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A118" s="122" t="s">
+        <v>551</v>
+      </c>
+      <c r="B118" s="123"/>
+    </row>
+    <row r="119" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A119" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" s="24" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A120" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B120" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A121" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B121" s="22"/>
+    </row>
+    <row r="122" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A122" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B122" s="23" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A125" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B125" s="19"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="19"/>
+    </row>
+    <row r="126" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A126" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B126" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="27.6" x14ac:dyDescent="0.45">
+      <c r="A127" s="153" t="s">
+        <v>553</v>
+      </c>
+      <c r="B127" s="154" t="s">
+        <v>554</v>
+      </c>
+      <c r="C127" s="154" t="s">
+        <v>555</v>
+      </c>
+      <c r="D127" s="155" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="27.6" x14ac:dyDescent="0.45">
+      <c r="A128" s="117" t="s">
+        <v>557</v>
+      </c>
+      <c r="B128" s="156"/>
+      <c r="C128" s="156" t="s">
+        <v>558</v>
+      </c>
+      <c r="D128" s="157" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="131" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A131" s="122" t="s">
+        <v>560</v>
+      </c>
+      <c r="B131" s="123"/>
+    </row>
+    <row r="132" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A132" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132" s="24" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A133" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B133" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A134" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B134" s="22"/>
+    </row>
+    <row r="135" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A135" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B135" s="23" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A137" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B137" s="19"/>
+      <c r="C137" s="19"/>
+      <c r="D137" s="19"/>
+    </row>
+    <row r="138" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A138" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B138" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C138" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D138" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="27.6" x14ac:dyDescent="0.45">
+      <c r="A139" s="153" t="s">
+        <v>553</v>
+      </c>
+      <c r="B139" s="154" t="s">
+        <v>554</v>
+      </c>
+      <c r="C139" s="154" t="s">
+        <v>555</v>
+      </c>
+      <c r="D139" s="155" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="27.6" x14ac:dyDescent="0.45">
+      <c r="A140" s="117" t="s">
+        <v>557</v>
+      </c>
+      <c r="B140" s="156"/>
+      <c r="C140" s="156" t="s">
+        <v>558</v>
+      </c>
+      <c r="D140" s="157" t="s">
+        <v>559</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="10">
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A131:B131"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A75:B75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="48.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="143" t="s">
+    <row r="1" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A1" s="128" t="s">
+        <v>356</v>
+      </c>
+      <c r="B1" s="128"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A2" s="94" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A3" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A4" s="94" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="66"/>
+    </row>
+    <row r="5" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A5" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A8" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+    </row>
+    <row r="9" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A9" s="95" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="98" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
+      <c r="A10" s="93" t="s">
+        <v>506</v>
+      </c>
+      <c r="B10" s="84" t="s">
+        <v>359</v>
+      </c>
+      <c r="C10" s="84" t="s">
+        <v>512</v>
+      </c>
+      <c r="D10" s="86" t="s">
         <v>360</v>
       </c>
-      <c r="B1" s="143"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="116" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="179.4" x14ac:dyDescent="0.45">
+      <c r="A11" s="93" t="s">
+        <v>507</v>
+      </c>
+      <c r="B11" s="84" t="s">
         <v>361</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="C11" s="99" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="116" t="s">
+      <c r="D11" s="86" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
+      <c r="A12" s="93" t="s">
+        <v>513</v>
+      </c>
+      <c r="B12" s="84" t="s">
+        <v>364</v>
+      </c>
+      <c r="C12" s="84" t="s">
+        <v>365</v>
+      </c>
+      <c r="D12" s="86" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A13" s="117" t="s">
+        <v>514</v>
+      </c>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="86"/>
+    </row>
+    <row r="14" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A14" s="117" t="s">
+        <v>515</v>
+      </c>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="86"/>
+    </row>
+    <row r="15" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A15" s="117" t="s">
+        <v>516</v>
+      </c>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="86"/>
+    </row>
+    <row r="16" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A16" s="117" t="s">
+        <v>517</v>
+      </c>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="86"/>
+    </row>
+    <row r="17" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A17" s="117" t="s">
+        <v>519</v>
+      </c>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="86"/>
+    </row>
+    <row r="18" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A18" s="117" t="s">
+        <v>518</v>
+      </c>
+      <c r="B18" s="84"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="86"/>
+    </row>
+    <row r="19" spans="1:4" ht="55.2" x14ac:dyDescent="0.45">
+      <c r="A19" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="87" t="s">
+        <v>367</v>
+      </c>
+      <c r="C19" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="86" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A22" s="128" t="s">
+        <v>368</v>
+      </c>
+      <c r="B22" s="128"/>
+    </row>
+    <row r="23" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A23" s="94" t="s">
+        <v>357</v>
+      </c>
+      <c r="B23" s="66" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A24" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B24" s="66" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="116" t="s">
+    <row r="25" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A25" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="67"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="116" t="s">
+      <c r="B25" s="66"/>
+    </row>
+    <row r="26" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A26" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="127" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+      <c r="B26" s="103" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A29" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="117" t="s">
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+    </row>
+    <row r="30" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A30" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="118" t="s">
+      <c r="B30" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="119" t="s">
+      <c r="C30" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="120" t="s">
+      <c r="D30" s="98" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="135" x14ac:dyDescent="0.2">
-      <c r="A10" s="94" t="s">
-        <v>363</v>
-      </c>
-      <c r="B10" s="85" t="s">
-        <v>364</v>
-      </c>
-      <c r="C10" s="85" t="s">
-        <v>365</v>
-      </c>
-      <c r="D10" s="87" t="s">
+    <row r="31" spans="1:4" ht="41.4" x14ac:dyDescent="0.45">
+      <c r="A31" s="93" t="s">
+        <v>508</v>
+      </c>
+      <c r="B31" s="133" t="s">
+        <v>371</v>
+      </c>
+      <c r="C31" s="99" t="s">
+        <v>372</v>
+      </c>
+      <c r="D31" s="134" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="55.2" x14ac:dyDescent="0.45">
+      <c r="A32" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="132" t="s">
+        <v>374</v>
+      </c>
+      <c r="C32" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A35" s="100" t="s">
+        <v>375</v>
+      </c>
+      <c r="B35" s="100"/>
+    </row>
+    <row r="36" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A36" s="94" t="s">
+        <v>357</v>
+      </c>
+      <c r="B36" s="66" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A37" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="66" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A38" s="94" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="66"/>
+    </row>
+    <row r="39" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A39" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="135" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A41" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+    </row>
+    <row r="42" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A42" s="95" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="98" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="124.2" x14ac:dyDescent="0.45">
+      <c r="A43" s="102" t="s">
+        <v>509</v>
+      </c>
+      <c r="B43" s="84" t="s">
+        <v>377</v>
+      </c>
+      <c r="C43" s="84" t="s">
+        <v>378</v>
+      </c>
+      <c r="D43" s="86" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="69" x14ac:dyDescent="0.45">
+      <c r="A44" s="102" t="s">
+        <v>510</v>
+      </c>
+      <c r="B44" s="84" t="s">
+        <v>380</v>
+      </c>
+      <c r="C44" s="84" t="s">
+        <v>381</v>
+      </c>
+      <c r="D44" s="86" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
+      <c r="A45" s="93" t="s">
+        <v>511</v>
+      </c>
+      <c r="B45" s="84" t="s">
+        <v>382</v>
+      </c>
+      <c r="C45" s="84" t="s">
+        <v>383</v>
+      </c>
+      <c r="D45" s="86" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="165" x14ac:dyDescent="0.2">
-      <c r="A11" s="94" t="s">
-        <v>367</v>
-      </c>
-      <c r="B11" s="85" t="s">
-        <v>368</v>
-      </c>
-      <c r="C11" s="121" t="s">
-        <v>369</v>
-      </c>
-      <c r="D11" s="87" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="105" x14ac:dyDescent="0.2">
-      <c r="A12" s="94" t="s">
-        <v>371</v>
-      </c>
-      <c r="B12" s="121" t="s">
-        <v>372</v>
-      </c>
-      <c r="C12" s="85" t="s">
-        <v>373</v>
-      </c>
-      <c r="D12" s="87" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A13" s="94" t="s">
+    <row r="46" spans="1:4" ht="55.2" x14ac:dyDescent="0.45">
+      <c r="A46" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="88" t="s">
-        <v>375</v>
-      </c>
-      <c r="C13" s="121" t="s">
+      <c r="B46" s="87" t="s">
+        <v>384</v>
+      </c>
+      <c r="C46" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="87" t="s">
+      <c r="D46" s="86" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="143" t="s">
+    <row r="49" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A49" s="128" t="s">
+        <v>385</v>
+      </c>
+      <c r="B49" s="128"/>
+    </row>
+    <row r="50" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A50" s="94" t="s">
+        <v>357</v>
+      </c>
+      <c r="B50" s="66" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A51" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="66" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A52" s="94" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="66"/>
+    </row>
+    <row r="53" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A53" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="136" t="s">
         <v>376</v>
       </c>
-      <c r="B16" s="143"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="116" t="s">
-        <v>361</v>
-      </c>
-      <c r="B17" s="67" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="116" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="67" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="116" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="67"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="116" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="67" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="s">
+    </row>
+    <row r="55" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A55" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="117" t="s">
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+    </row>
+    <row r="56" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A56" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="118" t="s">
+      <c r="B56" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="119" t="s">
+      <c r="C56" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="120" t="s">
+      <c r="D56" s="98" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A25" s="94" t="s">
-        <v>379</v>
-      </c>
-      <c r="B25" s="121" t="s">
-        <v>380</v>
-      </c>
-      <c r="C25" s="121" t="s">
-        <v>381</v>
-      </c>
-      <c r="D25" s="125" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A26" s="94" t="s">
+    <row r="57" spans="1:4" ht="124.2" x14ac:dyDescent="0.45">
+      <c r="A57" s="93" t="s">
+        <v>387</v>
+      </c>
+      <c r="B57" s="84" t="s">
+        <v>388</v>
+      </c>
+      <c r="C57" s="84" t="s">
+        <v>389</v>
+      </c>
+      <c r="D57" s="86" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="96.6" x14ac:dyDescent="0.45">
+      <c r="A58" s="93" t="s">
+        <v>390</v>
+      </c>
+      <c r="B58" s="84" t="s">
+        <v>391</v>
+      </c>
+      <c r="C58" s="84" t="s">
+        <v>392</v>
+      </c>
+      <c r="D58" s="86" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="55.2" x14ac:dyDescent="0.45">
+      <c r="A59" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="126" t="s">
-        <v>383</v>
-      </c>
-      <c r="C26" s="121" t="s">
+      <c r="B59" s="87" t="s">
+        <v>394</v>
+      </c>
+      <c r="C59" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="122" t="s">
-        <v>384</v>
-      </c>
-      <c r="B29" s="122"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="116" t="s">
-        <v>361</v>
-      </c>
-      <c r="B30" s="67" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="116" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="67" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="116" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="67"/>
-    </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A33" s="123" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="121" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="117" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="118" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="119" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="120" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="120" x14ac:dyDescent="0.2">
-      <c r="A37" s="124" t="s">
-        <v>387</v>
-      </c>
-      <c r="B37" s="85" t="s">
-        <v>388</v>
-      </c>
-      <c r="C37" s="85" t="s">
-        <v>389</v>
-      </c>
-      <c r="D37" s="87" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A38" s="124" t="s">
-        <v>391</v>
-      </c>
-      <c r="B38" s="85" t="s">
-        <v>392</v>
-      </c>
-      <c r="C38" s="85" t="s">
-        <v>393</v>
-      </c>
-      <c r="D38" s="87" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="105" x14ac:dyDescent="0.2">
-      <c r="A39" s="94" t="s">
-        <v>394</v>
-      </c>
-      <c r="B39" s="85" t="s">
-        <v>395</v>
-      </c>
-      <c r="C39" s="85" t="s">
-        <v>396</v>
-      </c>
-      <c r="D39" s="87" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A40" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" s="88" t="s">
-        <v>397</v>
-      </c>
-      <c r="C40" s="85" t="s">
-        <v>27</v>
-      </c>
-      <c r="D40" s="87" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="143" t="s">
-        <v>398</v>
-      </c>
-      <c r="B43" s="143"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="116" t="s">
-        <v>361</v>
-      </c>
-      <c r="B44" s="67" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="116" t="s">
-        <v>1</v>
-      </c>
-      <c r="B45" s="67" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="116" t="s">
-        <v>2</v>
-      </c>
-      <c r="B46" s="67"/>
-    </row>
-    <row r="47" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A47" s="89" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47" s="85" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="117" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50" s="118" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" s="119" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="120" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="135" x14ac:dyDescent="0.2">
-      <c r="A51" s="94" t="s">
-        <v>401</v>
-      </c>
-      <c r="B51" s="85" t="s">
-        <v>402</v>
-      </c>
-      <c r="C51" s="85" t="s">
-        <v>403</v>
-      </c>
-      <c r="D51" s="87" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="105" x14ac:dyDescent="0.2">
-      <c r="A52" s="94" t="s">
-        <v>404</v>
-      </c>
-      <c r="B52" s="85" t="s">
-        <v>405</v>
-      </c>
-      <c r="C52" s="85" t="s">
-        <v>406</v>
-      </c>
-      <c r="D52" s="87" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A53" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="B53" s="88" t="s">
-        <v>408</v>
-      </c>
-      <c r="C53" s="85" t="s">
-        <v>27</v>
-      </c>
-      <c r="D53" s="87" t="s">
+      <c r="D59" s="86" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A49:B49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="200" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="200" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="144" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="129" t="s">
+        <v>395</v>
+      </c>
+      <c r="B1" s="129"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="108" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" s="108" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="66"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="109" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="110" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="110" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="56.4" x14ac:dyDescent="0.45">
+      <c r="A10" s="107" t="s">
+        <v>400</v>
+      </c>
+      <c r="B10" s="102" t="s">
+        <v>399</v>
+      </c>
+      <c r="C10" s="102" t="s">
+        <v>398</v>
+      </c>
+      <c r="D10" s="102" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.2" x14ac:dyDescent="0.45">
+      <c r="A11" s="107" t="s">
+        <v>404</v>
+      </c>
+      <c r="B11" s="102" t="s">
+        <v>403</v>
+      </c>
+      <c r="C11" s="102" t="s">
+        <v>402</v>
+      </c>
+      <c r="D11" s="102" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="129" t="s">
+        <v>405</v>
+      </c>
+      <c r="B14" s="129"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="108" t="s">
+        <v>357</v>
+      </c>
+      <c r="B15" s="108" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="66" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="66"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="66" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="109" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="110" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="110" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="239.7" x14ac:dyDescent="0.45">
+      <c r="A23" s="107" t="s">
+        <v>410</v>
+      </c>
+      <c r="B23" s="102" t="s">
         <v>409</v>
       </c>
-      <c r="B1" s="144"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="132" t="s">
-        <v>361</v>
-      </c>
-      <c r="B2" s="132" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="67" t="s">
+      <c r="C23" s="102" t="s">
+        <v>408</v>
+      </c>
+      <c r="D23" s="111" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="141" x14ac:dyDescent="0.45">
+      <c r="A24" s="107" t="s">
+        <v>414</v>
+      </c>
+      <c r="B24" s="102" t="s">
+        <v>413</v>
+      </c>
+      <c r="C24" s="102" t="s">
+        <v>412</v>
+      </c>
+      <c r="D24" s="102" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="211.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="107" t="s">
+        <v>418</v>
+      </c>
+      <c r="B25" s="102" t="s">
+        <v>417</v>
+      </c>
+      <c r="C25" s="112" t="s">
+        <v>416</v>
+      </c>
+      <c r="D25" s="102" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="141" x14ac:dyDescent="0.45">
+      <c r="A26" s="107" t="s">
+        <v>422</v>
+      </c>
+      <c r="B26" s="102" t="s">
+        <v>421</v>
+      </c>
+      <c r="C26" s="102" t="s">
+        <v>420</v>
+      </c>
+      <c r="D26" s="102" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="409.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="106" t="s">
+        <v>426</v>
+      </c>
+      <c r="B27" s="102" t="s">
+        <v>425</v>
+      </c>
+      <c r="C27" s="102" t="s">
+        <v>424</v>
+      </c>
+      <c r="D27" s="102" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="98.7" x14ac:dyDescent="0.45">
+      <c r="A28" s="106" t="s">
+        <v>429</v>
+      </c>
+      <c r="B28" s="102" t="s">
+        <v>428</v>
+      </c>
+      <c r="C28" s="102" t="s">
+        <v>427</v>
+      </c>
+      <c r="D28" s="102" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="84.6" x14ac:dyDescent="0.45">
+      <c r="A29" s="106" t="s">
+        <v>432</v>
+      </c>
+      <c r="B29" s="102" t="s">
+        <v>431</v>
+      </c>
+      <c r="C29" s="102" t="s">
+        <v>430</v>
+      </c>
+      <c r="D29" s="102" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="129" t="s">
+        <v>433</v>
+      </c>
+      <c r="B33" s="129"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" s="108" t="s">
+        <v>357</v>
+      </c>
+      <c r="B34" s="108" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B35" s="66" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="67" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="67"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="67" t="s">
+      <c r="B36" s="66"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="67" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="133" t="s">
+      <c r="B37" s="66" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40" s="109" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="134" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="134" t="s">
+      <c r="B41" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="134" t="s">
+      <c r="C41" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="134" t="s">
+      <c r="D41" s="110" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A10" s="131" t="s">
-        <v>414</v>
-      </c>
-      <c r="B10" s="124" t="s">
-        <v>413</v>
-      </c>
-      <c r="C10" s="124" t="s">
-        <v>412</v>
-      </c>
-      <c r="D10" s="124" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A11" s="131" t="s">
-        <v>418</v>
-      </c>
-      <c r="B11" s="124" t="s">
-        <v>417</v>
-      </c>
-      <c r="C11" s="124" t="s">
-        <v>416</v>
-      </c>
-      <c r="D11" s="124" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="144" t="s">
-        <v>419</v>
-      </c>
-      <c r="B14" s="144"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="132" t="s">
-        <v>361</v>
-      </c>
-      <c r="B15" s="132" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="67" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="67"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="67" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="133" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="134" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="134" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="134" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="134" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="240" x14ac:dyDescent="0.2">
-      <c r="A23" s="131" t="s">
-        <v>424</v>
-      </c>
-      <c r="B23" s="124" t="s">
+    <row r="42" spans="1:4" ht="267.89999999999998" x14ac:dyDescent="0.45">
+      <c r="A42" s="107" t="s">
+        <v>438</v>
+      </c>
+      <c r="B42" s="102" t="s">
+        <v>437</v>
+      </c>
+      <c r="C42" s="102" t="s">
+        <v>436</v>
+      </c>
+      <c r="D42" s="102" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="126.9" x14ac:dyDescent="0.45">
+      <c r="A43" s="107" t="s">
+        <v>442</v>
+      </c>
+      <c r="B43" s="102" t="s">
+        <v>441</v>
+      </c>
+      <c r="C43" s="102" t="s">
+        <v>440</v>
+      </c>
+      <c r="D43" s="102" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="126.9" x14ac:dyDescent="0.45">
+      <c r="A44" s="107" t="s">
+        <v>445</v>
+      </c>
+      <c r="B44" s="102" t="s">
+        <v>444</v>
+      </c>
+      <c r="C44" s="102" t="s">
+        <v>443</v>
+      </c>
+      <c r="D44" s="102" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="112.8" x14ac:dyDescent="0.45">
+      <c r="A45" s="107" t="s">
+        <v>448</v>
+      </c>
+      <c r="B45" s="102" t="s">
+        <v>447</v>
+      </c>
+      <c r="C45" s="102" t="s">
+        <v>446</v>
+      </c>
+      <c r="D45" s="102" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="112.8" x14ac:dyDescent="0.45">
+      <c r="A46" s="107" t="s">
+        <v>451</v>
+      </c>
+      <c r="B46" s="102" t="s">
+        <v>450</v>
+      </c>
+      <c r="C46" s="102" t="s">
+        <v>449</v>
+      </c>
+      <c r="D46" s="112" t="s">
         <v>423</v>
       </c>
-      <c r="C23" s="124" t="s">
-        <v>422</v>
-      </c>
-      <c r="D23" s="135" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="135" x14ac:dyDescent="0.2">
-      <c r="A24" s="131" t="s">
-        <v>428</v>
-      </c>
-      <c r="B24" s="124" t="s">
-        <v>427</v>
-      </c>
-      <c r="C24" s="124" t="s">
-        <v>426</v>
-      </c>
-      <c r="D24" s="124" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="210" x14ac:dyDescent="0.2">
-      <c r="A25" s="131" t="s">
+    </row>
+    <row r="47" spans="1:4" ht="112.8" x14ac:dyDescent="0.45">
+      <c r="A47" s="106" t="s">
+        <v>454</v>
+      </c>
+      <c r="B47" s="102" t="s">
+        <v>453</v>
+      </c>
+      <c r="C47" s="102" t="s">
+        <v>452</v>
+      </c>
+      <c r="D47" s="107"/>
+    </row>
+    <row r="48" spans="1:4" ht="84.6" x14ac:dyDescent="0.45">
+      <c r="A48" s="107" t="s">
         <v>432</v>
       </c>
-      <c r="B25" s="124" t="s">
+      <c r="B48" s="102" t="s">
         <v>431</v>
       </c>
-      <c r="C25" s="136" t="s">
+      <c r="C48" s="102" t="s">
         <v>430</v>
       </c>
-      <c r="D25" s="124" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="135" x14ac:dyDescent="0.2">
-      <c r="A26" s="131" t="s">
-        <v>436</v>
-      </c>
-      <c r="B26" s="124" t="s">
-        <v>435</v>
-      </c>
-      <c r="C26" s="124" t="s">
-        <v>434</v>
-      </c>
-      <c r="D26" s="124" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="409" x14ac:dyDescent="0.2">
-      <c r="A27" s="130" t="s">
-        <v>440</v>
-      </c>
-      <c r="B27" s="124" t="s">
-        <v>439</v>
-      </c>
-      <c r="C27" s="124" t="s">
-        <v>438</v>
-      </c>
-      <c r="D27" s="124" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="105" x14ac:dyDescent="0.2">
-      <c r="A28" s="130" t="s">
-        <v>443</v>
-      </c>
-      <c r="B28" s="124" t="s">
-        <v>442</v>
-      </c>
-      <c r="C28" s="124" t="s">
-        <v>441</v>
-      </c>
-      <c r="D28" s="124" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A29" s="130" t="s">
-        <v>446</v>
-      </c>
-      <c r="B29" s="124" t="s">
-        <v>445</v>
-      </c>
-      <c r="C29" s="124" t="s">
-        <v>444</v>
-      </c>
-      <c r="D29" s="124" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="144" t="s">
-        <v>447</v>
-      </c>
-      <c r="B33" s="144"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="132" t="s">
-        <v>361</v>
-      </c>
-      <c r="B34" s="132" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="67" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="67"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="67" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="133" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="134" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" s="134" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="134" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="134" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="255" x14ac:dyDescent="0.2">
-      <c r="A42" s="131" t="s">
-        <v>452</v>
-      </c>
-      <c r="B42" s="124" t="s">
-        <v>451</v>
-      </c>
-      <c r="C42" s="124" t="s">
-        <v>450</v>
-      </c>
-      <c r="D42" s="124" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="135" x14ac:dyDescent="0.2">
-      <c r="A43" s="131" t="s">
-        <v>456</v>
-      </c>
-      <c r="B43" s="124" t="s">
-        <v>455</v>
-      </c>
-      <c r="C43" s="124" t="s">
-        <v>454</v>
-      </c>
-      <c r="D43" s="124" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="135" x14ac:dyDescent="0.2">
-      <c r="A44" s="131" t="s">
-        <v>459</v>
-      </c>
-      <c r="B44" s="124" t="s">
-        <v>458</v>
-      </c>
-      <c r="C44" s="124" t="s">
-        <v>457</v>
-      </c>
-      <c r="D44" s="124" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="120" x14ac:dyDescent="0.2">
-      <c r="A45" s="131" t="s">
-        <v>462</v>
-      </c>
-      <c r="B45" s="124" t="s">
-        <v>461</v>
-      </c>
-      <c r="C45" s="124" t="s">
-        <v>460</v>
-      </c>
-      <c r="D45" s="124" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="120" x14ac:dyDescent="0.2">
-      <c r="A46" s="131" t="s">
-        <v>465</v>
-      </c>
-      <c r="B46" s="124" t="s">
-        <v>464</v>
-      </c>
-      <c r="C46" s="124" t="s">
-        <v>463</v>
-      </c>
-      <c r="D46" s="136" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="120" x14ac:dyDescent="0.2">
-      <c r="A47" s="130" t="s">
-        <v>468</v>
-      </c>
-      <c r="B47" s="124" t="s">
-        <v>467</v>
-      </c>
-      <c r="C47" s="124" t="s">
-        <v>466</v>
-      </c>
-      <c r="D47" s="131"/>
-    </row>
-    <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A48" s="131" t="s">
-        <v>446</v>
-      </c>
-      <c r="B48" s="124" t="s">
-        <v>445</v>
-      </c>
-      <c r="C48" s="124" t="s">
-        <v>444</v>
-      </c>
-      <c r="D48" s="124" t="s">
-        <v>415</v>
+      <c r="D48" s="102" t="s">
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -7951,7 +9404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D52"/>
   <sheetViews>
@@ -7959,437 +9412,437 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="42.83203125" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" customWidth="1"/>
+    <col min="1" max="1" width="42.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.47265625" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="137" t="s">
+    <row r="1" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="138"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="B1" s="123"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="23"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
+      <c r="B4" s="22"/>
+    </row>
+    <row r="5" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="144" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="129" t="s">
+        <v>395</v>
+      </c>
+      <c r="B8" s="129"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="108" t="s">
+        <v>357</v>
+      </c>
+      <c r="B9" s="108" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="66"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="109" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="110" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="110" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="56.4" x14ac:dyDescent="0.45">
+      <c r="A16" s="105" t="s">
+        <v>400</v>
+      </c>
+      <c r="B16" s="102" t="s">
+        <v>399</v>
+      </c>
+      <c r="C16" s="102" t="s">
+        <v>398</v>
+      </c>
+      <c r="D16" s="102" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="28.2" x14ac:dyDescent="0.45">
+      <c r="A17" s="105" t="s">
+        <v>404</v>
+      </c>
+      <c r="B17" s="102" t="s">
+        <v>403</v>
+      </c>
+      <c r="C17" s="102" t="s">
+        <v>402</v>
+      </c>
+      <c r="D17" s="102" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="129" t="s">
+        <v>405</v>
+      </c>
+      <c r="B21" s="129"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="108" t="s">
+        <v>357</v>
+      </c>
+      <c r="B22" s="108" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="66" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="66"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="66" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="109" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="110" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="110" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="183.3" x14ac:dyDescent="0.45">
+      <c r="A30" s="105" t="s">
+        <v>410</v>
+      </c>
+      <c r="B30" s="102" t="s">
         <v>409</v>
       </c>
-      <c r="B8" s="144"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="132" t="s">
-        <v>361</v>
-      </c>
-      <c r="B9" s="132" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="67" t="s">
+      <c r="C30" s="102" t="s">
+        <v>408</v>
+      </c>
+      <c r="D30" s="111" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="126.9" x14ac:dyDescent="0.45">
+      <c r="A31" s="105" t="s">
+        <v>414</v>
+      </c>
+      <c r="B31" s="102" t="s">
+        <v>413</v>
+      </c>
+      <c r="C31" s="102" t="s">
+        <v>412</v>
+      </c>
+      <c r="D31" s="102" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="155.1" x14ac:dyDescent="0.45">
+      <c r="A32" s="105" t="s">
+        <v>418</v>
+      </c>
+      <c r="B32" s="102" t="s">
+        <v>417</v>
+      </c>
+      <c r="C32" s="112" t="s">
+        <v>416</v>
+      </c>
+      <c r="D32" s="102" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="126.9" x14ac:dyDescent="0.45">
+      <c r="A33" s="105" t="s">
+        <v>422</v>
+      </c>
+      <c r="B33" s="102" t="s">
+        <v>421</v>
+      </c>
+      <c r="C33" s="102" t="s">
+        <v>420</v>
+      </c>
+      <c r="D33" s="102" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="408.9" x14ac:dyDescent="0.45">
+      <c r="A34" s="104" t="s">
+        <v>426</v>
+      </c>
+      <c r="B34" s="102" t="s">
+        <v>425</v>
+      </c>
+      <c r="C34" s="102" t="s">
+        <v>424</v>
+      </c>
+      <c r="D34" s="102" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="98.7" x14ac:dyDescent="0.45">
+      <c r="A35" s="104" t="s">
+        <v>429</v>
+      </c>
+      <c r="B35" s="102" t="s">
+        <v>428</v>
+      </c>
+      <c r="C35" s="102" t="s">
+        <v>427</v>
+      </c>
+      <c r="D35" s="102" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="56.4" x14ac:dyDescent="0.45">
+      <c r="A36" s="104" t="s">
+        <v>432</v>
+      </c>
+      <c r="B36" s="102" t="s">
+        <v>431</v>
+      </c>
+      <c r="C36" s="102" t="s">
+        <v>430</v>
+      </c>
+      <c r="D36" s="102" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="38" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="130" t="s">
+        <v>433</v>
+      </c>
+      <c r="B38" s="131"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39" s="108" t="s">
+        <v>434</v>
+      </c>
+      <c r="B39" s="108" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="B40" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="67" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="67" t="s">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41" s="66"/>
+      <c r="B41" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="67"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="67" t="s">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42" s="66" t="s">
+        <v>396</v>
+      </c>
+      <c r="B42" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="67" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="133" t="s">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44" s="109" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="134" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="134" t="s">
+      <c r="B45" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="134" t="s">
+      <c r="C45" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="134" t="s">
+      <c r="D45" s="110" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A16" s="129" t="s">
-        <v>414</v>
-      </c>
-      <c r="B16" s="124" t="s">
-        <v>413</v>
-      </c>
-      <c r="C16" s="124" t="s">
-        <v>412</v>
-      </c>
-      <c r="D16" s="124" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A17" s="129" t="s">
-        <v>418</v>
-      </c>
-      <c r="B17" s="124" t="s">
-        <v>417</v>
-      </c>
-      <c r="C17" s="124" t="s">
-        <v>416</v>
-      </c>
-      <c r="D17" s="124" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="144" t="s">
-        <v>419</v>
-      </c>
-      <c r="B21" s="144"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="132" t="s">
-        <v>361</v>
-      </c>
-      <c r="B22" s="132" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="67" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="67"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="67" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="133" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="134" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="134" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="134" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="134" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="165" x14ac:dyDescent="0.2">
-      <c r="A30" s="129" t="s">
-        <v>424</v>
-      </c>
-      <c r="B30" s="124" t="s">
+    <row r="46" spans="1:4" ht="183.3" x14ac:dyDescent="0.45">
+      <c r="A46" s="105" t="s">
+        <v>438</v>
+      </c>
+      <c r="B46" s="102" t="s">
+        <v>437</v>
+      </c>
+      <c r="C46" s="102" t="s">
+        <v>436</v>
+      </c>
+      <c r="D46" s="102" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="126.9" x14ac:dyDescent="0.45">
+      <c r="A47" s="105" t="s">
+        <v>442</v>
+      </c>
+      <c r="B47" s="102" t="s">
+        <v>441</v>
+      </c>
+      <c r="C47" s="102" t="s">
+        <v>440</v>
+      </c>
+      <c r="D47" s="102" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="126.9" x14ac:dyDescent="0.45">
+      <c r="A48" s="105" t="s">
+        <v>445</v>
+      </c>
+      <c r="B48" s="102" t="s">
+        <v>444</v>
+      </c>
+      <c r="C48" s="102" t="s">
+        <v>443</v>
+      </c>
+      <c r="D48" s="102" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="112.8" x14ac:dyDescent="0.45">
+      <c r="A49" s="105" t="s">
+        <v>448</v>
+      </c>
+      <c r="B49" s="102" t="s">
+        <v>447</v>
+      </c>
+      <c r="C49" s="102" t="s">
+        <v>446</v>
+      </c>
+      <c r="D49" s="102" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="112.8" x14ac:dyDescent="0.45">
+      <c r="A50" s="105" t="s">
+        <v>451</v>
+      </c>
+      <c r="B50" s="102" t="s">
+        <v>450</v>
+      </c>
+      <c r="C50" s="102" t="s">
+        <v>449</v>
+      </c>
+      <c r="D50" s="112" t="s">
         <v>423</v>
       </c>
-      <c r="C30" s="124" t="s">
-        <v>422</v>
-      </c>
-      <c r="D30" s="135" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="120" x14ac:dyDescent="0.2">
-      <c r="A31" s="129" t="s">
-        <v>428</v>
-      </c>
-      <c r="B31" s="124" t="s">
-        <v>427</v>
-      </c>
-      <c r="C31" s="124" t="s">
-        <v>426</v>
-      </c>
-      <c r="D31" s="124" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="135" x14ac:dyDescent="0.2">
-      <c r="A32" s="129" t="s">
+    </row>
+    <row r="51" spans="1:4" ht="112.8" x14ac:dyDescent="0.45">
+      <c r="A51" s="104" t="s">
+        <v>454</v>
+      </c>
+      <c r="B51" s="102" t="s">
+        <v>453</v>
+      </c>
+      <c r="C51" s="102" t="s">
+        <v>452</v>
+      </c>
+      <c r="D51" s="105"/>
+    </row>
+    <row r="52" spans="1:4" ht="56.4" x14ac:dyDescent="0.45">
+      <c r="A52" s="105" t="s">
         <v>432</v>
       </c>
-      <c r="B32" s="124" t="s">
+      <c r="B52" s="102" t="s">
         <v>431</v>
       </c>
-      <c r="C32" s="136" t="s">
+      <c r="C52" s="102" t="s">
         <v>430</v>
       </c>
-      <c r="D32" s="124" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="120" x14ac:dyDescent="0.2">
-      <c r="A33" s="129" t="s">
-        <v>436</v>
-      </c>
-      <c r="B33" s="124" t="s">
-        <v>435</v>
-      </c>
-      <c r="C33" s="124" t="s">
-        <v>434</v>
-      </c>
-      <c r="D33" s="124" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="390" x14ac:dyDescent="0.2">
-      <c r="A34" s="128" t="s">
-        <v>440</v>
-      </c>
-      <c r="B34" s="124" t="s">
-        <v>439</v>
-      </c>
-      <c r="C34" s="124" t="s">
-        <v>438</v>
-      </c>
-      <c r="D34" s="124" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A35" s="128" t="s">
-        <v>443</v>
-      </c>
-      <c r="B35" s="124" t="s">
-        <v>442</v>
-      </c>
-      <c r="C35" s="124" t="s">
-        <v>441</v>
-      </c>
-      <c r="D35" s="124" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A36" s="128" t="s">
-        <v>446</v>
-      </c>
-      <c r="B36" s="124" t="s">
-        <v>445</v>
-      </c>
-      <c r="C36" s="124" t="s">
-        <v>444</v>
-      </c>
-      <c r="D36" s="124" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="145" t="s">
-        <v>447</v>
-      </c>
-      <c r="B38" s="146"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="132" t="s">
-        <v>448</v>
-      </c>
-      <c r="B39" s="132" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="67" t="s">
-        <v>150</v>
-      </c>
-      <c r="B40" s="67" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="67"/>
-      <c r="B41" s="67" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="67" t="s">
-        <v>410</v>
-      </c>
-      <c r="B42" s="67" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="133" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="134" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45" s="134" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="134" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="134" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="180" x14ac:dyDescent="0.2">
-      <c r="A46" s="129" t="s">
-        <v>452</v>
-      </c>
-      <c r="B46" s="124" t="s">
-        <v>451</v>
-      </c>
-      <c r="C46" s="124" t="s">
-        <v>450</v>
-      </c>
-      <c r="D46" s="124" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="120" x14ac:dyDescent="0.2">
-      <c r="A47" s="129" t="s">
-        <v>456</v>
-      </c>
-      <c r="B47" s="124" t="s">
-        <v>455</v>
-      </c>
-      <c r="C47" s="124" t="s">
-        <v>454</v>
-      </c>
-      <c r="D47" s="124" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="120" x14ac:dyDescent="0.2">
-      <c r="A48" s="129" t="s">
-        <v>459</v>
-      </c>
-      <c r="B48" s="124" t="s">
-        <v>458</v>
-      </c>
-      <c r="C48" s="124" t="s">
-        <v>457</v>
-      </c>
-      <c r="D48" s="124" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="105" x14ac:dyDescent="0.2">
-      <c r="A49" s="129" t="s">
-        <v>462</v>
-      </c>
-      <c r="B49" s="124" t="s">
-        <v>461</v>
-      </c>
-      <c r="C49" s="124" t="s">
-        <v>460</v>
-      </c>
-      <c r="D49" s="124" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="105" x14ac:dyDescent="0.2">
-      <c r="A50" s="129" t="s">
-        <v>465</v>
-      </c>
-      <c r="B50" s="124" t="s">
-        <v>464</v>
-      </c>
-      <c r="C50" s="124" t="s">
-        <v>463</v>
-      </c>
-      <c r="D50" s="136" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="105" x14ac:dyDescent="0.2">
-      <c r="A51" s="128" t="s">
-        <v>468</v>
-      </c>
-      <c r="B51" s="124" t="s">
-        <v>467</v>
-      </c>
-      <c r="C51" s="124" t="s">
-        <v>466</v>
-      </c>
-      <c r="D51" s="129"/>
-    </row>
-    <row r="52" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A52" s="129" t="s">
-        <v>446</v>
-      </c>
-      <c r="B52" s="124" t="s">
-        <v>445</v>
-      </c>
-      <c r="C52" s="124" t="s">
-        <v>444</v>
-      </c>
-      <c r="D52" s="124" t="s">
-        <v>415</v>
+      <c r="D52" s="102" t="s">
+        <v>401</v>
       </c>
     </row>
   </sheetData>
